--- a/ExtractingData/Station_List.xlsx
+++ b/ExtractingData/Station_List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raunakbardia/Desktop/AirQuality/ExtractingData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\airQuality\ExtractingData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40ADB1C7-9601-A647-8AE1-B57E26807F9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F734BB3B-A825-4F97-BEBD-79DA4B99A6FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="27460" windowHeight="15940" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
@@ -1408,6 +1408,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1419,15 +1428,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4160,7 +4160,7 @@
       <selection activeCell="F4" sqref="F4:F235"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="3.6640625" customWidth="1"/>
     <col min="2" max="3" width="20.6640625" customWidth="1"/>
@@ -4171,51 +4171,51 @@
     <col min="9" max="27" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="15"/>
+      <c r="E3" s="11"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="15"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="2" t="str" cm="1">
@@ -4242,9 +4242,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C5" ca="1">IF(INDIRECT("B"&amp;I5)=0,INDIRECT("C"&amp;(I5-1)),INDIRECT("B"&amp;I5))</f>
         <v>Andhra_Pradesh</v>
@@ -4269,9 +4269,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IF(INDIRECT("B"&amp;I6)=0,INDIRECT("C"&amp;(I6-1)),INDIRECT("B"&amp;I6))</f>
         <v>Andhra_Pradesh</v>
@@ -4300,9 +4300,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">IF(INDIRECT("B"&amp;I7)=0,INDIRECT("C"&amp;(I7-1)),INDIRECT("B"&amp;I7))</f>
         <v>Andhra_Pradesh</v>
@@ -4327,9 +4327,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">IF(INDIRECT("B"&amp;I8)=0,INDIRECT("C"&amp;(I8-1)),INDIRECT("B"&amp;I8))</f>
         <v>Andhra_Pradesh</v>
@@ -4354,7 +4354,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -4385,21 +4385,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A10" s="12">
         <v>3</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="12" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C10" ca="1">IF(INDIRECT("B"&amp;I10)=0,INDIRECT("C"&amp;(I10-1)),INDIRECT("B"&amp;I10))</f>
         <v>Bihar</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="12">
         <v>7</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="2" t="str" cm="1">
@@ -4416,15 +4416,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C11" ca="1">IF(INDIRECT("B"&amp;I11)=0,INDIRECT("C"&amp;(I11-1)),INDIRECT("B"&amp;I11))</f>
         <v>Bihar</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F11" ca="1">IF(INDIRECT("E"&amp;I11)=0,INDIRECT("F"&amp;(I11-1)),INDIRECT("E"&amp;I11))</f>
         <v>Gaya</v>
@@ -4439,9 +4439,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C12" ca="1">IF(INDIRECT("B"&amp;I12)=0,INDIRECT("C"&amp;(I12-1)),INDIRECT("B"&amp;I12))</f>
         <v>Bihar</v>
@@ -4466,9 +4466,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C13" ca="1">IF(INDIRECT("B"&amp;I13)=0,INDIRECT("C"&amp;(I13-1)),INDIRECT("B"&amp;I13))</f>
         <v>Bihar</v>
@@ -4493,17 +4493,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C14" ca="1">IF(INDIRECT("B"&amp;I14)=0,INDIRECT("C"&amp;(I14-1)),INDIRECT("B"&amp;I14))</f>
         <v>Bihar</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="12">
         <v>10</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="13" t="s">
         <v>32</v>
       </c>
       <c r="F14" s="2" t="str" cm="1">
@@ -4520,15 +4520,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C15" ca="1">IF(INDIRECT("B"&amp;I15)=0,INDIRECT("C"&amp;(I15-1)),INDIRECT("B"&amp;I15))</f>
         <v>Bihar</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="14"/>
       <c r="F15" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F15" ca="1">IF(INDIRECT("E"&amp;I15)=0,INDIRECT("F"&amp;(I15-1)),INDIRECT("E"&amp;I15))</f>
         <v>Patna</v>
@@ -4543,15 +4543,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C16" ca="1">IF(INDIRECT("B"&amp;I16)=0,INDIRECT("C"&amp;(I16-1)),INDIRECT("B"&amp;I16))</f>
         <v>Bihar</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F16" ca="1">IF(INDIRECT("E"&amp;I16)=0,INDIRECT("F"&amp;(I16-1)),INDIRECT("E"&amp;I16))</f>
         <v>Patna</v>
@@ -4566,15 +4566,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C17" ca="1">IF(INDIRECT("B"&amp;I17)=0,INDIRECT("C"&amp;(I17-1)),INDIRECT("B"&amp;I17))</f>
         <v>Bihar</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="14"/>
       <c r="F17" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F17" ca="1">IF(INDIRECT("E"&amp;I17)=0,INDIRECT("F"&amp;(I17-1)),INDIRECT("E"&amp;I17))</f>
         <v>Patna</v>
@@ -4589,15 +4589,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C18" ca="1">IF(INDIRECT("B"&amp;I18)=0,INDIRECT("C"&amp;(I18-1)),INDIRECT("B"&amp;I18))</f>
         <v>Bihar</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="14"/>
       <c r="F18" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F18" ca="1">IF(INDIRECT("E"&amp;I18)=0,INDIRECT("F"&amp;(I18-1)),INDIRECT("E"&amp;I18))</f>
         <v>Patna</v>
@@ -4612,15 +4612,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C19" ca="1">IF(INDIRECT("B"&amp;I19)=0,INDIRECT("C"&amp;(I19-1)),INDIRECT("B"&amp;I19))</f>
         <v>Bihar</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="14"/>
       <c r="F19" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F19" ca="1">IF(INDIRECT("E"&amp;I19)=0,INDIRECT("F"&amp;(I19-1)),INDIRECT("E"&amp;I19))</f>
         <v>Patna</v>
@@ -4635,15 +4635,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C20" ca="1">IF(INDIRECT("B"&amp;I20)=0,INDIRECT("C"&amp;(I20-1)),INDIRECT("B"&amp;I20))</f>
         <v>Bihar</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="15"/>
       <c r="F20" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F20" ca="1">IF(INDIRECT("E"&amp;I20)=0,INDIRECT("F"&amp;(I20-1)),INDIRECT("E"&amp;I20))</f>
         <v>Patna</v>
@@ -4658,7 +4658,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>4</v>
       </c>
@@ -4689,21 +4689,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22" s="12">
         <v>5</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="12" t="s">
         <v>74</v>
       </c>
       <c r="C22" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C22" ca="1">IF(INDIRECT("B"&amp;I22)=0,INDIRECT("C"&amp;(I22-1)),INDIRECT("B"&amp;I22))</f>
         <v>Delhi</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="12">
         <v>12</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="12" t="s">
         <v>74</v>
       </c>
       <c r="F22" s="2" t="str" cm="1">
@@ -4720,15 +4720,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C23" ca="1">IF(INDIRECT("B"&amp;I23)=0,INDIRECT("C"&amp;(I23-1)),INDIRECT("B"&amp;I23))</f>
         <v>Delhi</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
       <c r="F23" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F23" ca="1">IF(INDIRECT("E"&amp;I23)=0,INDIRECT("F"&amp;(I23-1)),INDIRECT("E"&amp;I23))</f>
         <v>Delhi</v>
@@ -4743,15 +4743,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C24" ca="1">IF(INDIRECT("B"&amp;I24)=0,INDIRECT("C"&amp;(I24-1)),INDIRECT("B"&amp;I24))</f>
         <v>Delhi</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
       <c r="F24" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F24" ca="1">IF(INDIRECT("E"&amp;I24)=0,INDIRECT("F"&amp;(I24-1)),INDIRECT("E"&amp;I24))</f>
         <v>Delhi</v>
@@ -4766,15 +4766,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C25" ca="1">IF(INDIRECT("B"&amp;I25)=0,INDIRECT("C"&amp;(I25-1)),INDIRECT("B"&amp;I25))</f>
         <v>Delhi</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
       <c r="F25" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F25" ca="1">IF(INDIRECT("E"&amp;I25)=0,INDIRECT("F"&amp;(I25-1)),INDIRECT("E"&amp;I25))</f>
         <v>Delhi</v>
@@ -4789,15 +4789,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C26" ca="1">IF(INDIRECT("B"&amp;I26)=0,INDIRECT("C"&amp;(I26-1)),INDIRECT("B"&amp;I26))</f>
         <v>Delhi</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
       <c r="F26" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F26" ca="1">IF(INDIRECT("E"&amp;I26)=0,INDIRECT("F"&amp;(I26-1)),INDIRECT("E"&amp;I26))</f>
         <v>Delhi</v>
@@ -4812,15 +4812,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C27" ca="1">IF(INDIRECT("B"&amp;I27)=0,INDIRECT("C"&amp;(I27-1)),INDIRECT("B"&amp;I27))</f>
         <v>Delhi</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
       <c r="F27" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F27" ca="1">IF(INDIRECT("E"&amp;I27)=0,INDIRECT("F"&amp;(I27-1)),INDIRECT("E"&amp;I27))</f>
         <v>Delhi</v>
@@ -4835,15 +4835,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C28" ca="1">IF(INDIRECT("B"&amp;I28)=0,INDIRECT("C"&amp;(I28-1)),INDIRECT("B"&amp;I28))</f>
         <v>Delhi</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
       <c r="F28" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F28" ca="1">IF(INDIRECT("E"&amp;I28)=0,INDIRECT("F"&amp;(I28-1)),INDIRECT("E"&amp;I28))</f>
         <v>Delhi</v>
@@ -4858,15 +4858,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C29" ca="1">IF(INDIRECT("B"&amp;I29)=0,INDIRECT("C"&amp;(I29-1)),INDIRECT("B"&amp;I29))</f>
         <v>Delhi</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
       <c r="F29" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F29" ca="1">IF(INDIRECT("E"&amp;I29)=0,INDIRECT("F"&amp;(I29-1)),INDIRECT("E"&amp;I29))</f>
         <v>Delhi</v>
@@ -4881,15 +4881,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
       <c r="C30" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C30" ca="1">IF(INDIRECT("B"&amp;I30)=0,INDIRECT("C"&amp;(I30-1)),INDIRECT("B"&amp;I30))</f>
         <v>Delhi</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
       <c r="F30" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F30" ca="1">IF(INDIRECT("E"&amp;I30)=0,INDIRECT("F"&amp;(I30-1)),INDIRECT("E"&amp;I30))</f>
         <v>Delhi</v>
@@ -4904,15 +4904,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
       <c r="C31" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C31" ca="1">IF(INDIRECT("B"&amp;I31)=0,INDIRECT("C"&amp;(I31-1)),INDIRECT("B"&amp;I31))</f>
         <v>Delhi</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
       <c r="F31" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F31" ca="1">IF(INDIRECT("E"&amp;I31)=0,INDIRECT("F"&amp;(I31-1)),INDIRECT("E"&amp;I31))</f>
         <v>Delhi</v>
@@ -4927,15 +4927,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C32" ca="1">IF(INDIRECT("B"&amp;I32)=0,INDIRECT("C"&amp;(I32-1)),INDIRECT("B"&amp;I32))</f>
         <v>Delhi</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
       <c r="F32" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F32" ca="1">IF(INDIRECT("E"&amp;I32)=0,INDIRECT("F"&amp;(I32-1)),INDIRECT("E"&amp;I32))</f>
         <v>Delhi</v>
@@ -4950,15 +4950,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
       <c r="C33" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C33" ca="1">IF(INDIRECT("B"&amp;I33)=0,INDIRECT("C"&amp;(I33-1)),INDIRECT("B"&amp;I33))</f>
         <v>Delhi</v>
       </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
       <c r="F33" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F33" ca="1">IF(INDIRECT("E"&amp;I33)=0,INDIRECT("F"&amp;(I33-1)),INDIRECT("E"&amp;I33))</f>
         <v>Delhi</v>
@@ -4973,15 +4973,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
       <c r="C34" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C34" ca="1">IF(INDIRECT("B"&amp;I34)=0,INDIRECT("C"&amp;(I34-1)),INDIRECT("B"&amp;I34))</f>
         <v>Delhi</v>
       </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
       <c r="F34" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F34" ca="1">IF(INDIRECT("E"&amp;I34)=0,INDIRECT("F"&amp;(I34-1)),INDIRECT("E"&amp;I34))</f>
         <v>Delhi</v>
@@ -4996,15 +4996,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
       <c r="C35" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C35" ca="1">IF(INDIRECT("B"&amp;I35)=0,INDIRECT("C"&amp;(I35-1)),INDIRECT("B"&amp;I35))</f>
         <v>Delhi</v>
       </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
       <c r="F35" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F35" ca="1">IF(INDIRECT("E"&amp;I35)=0,INDIRECT("F"&amp;(I35-1)),INDIRECT("E"&amp;I35))</f>
         <v>Delhi</v>
@@ -5019,15 +5019,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
       <c r="C36" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C36" ca="1">IF(INDIRECT("B"&amp;I36)=0,INDIRECT("C"&amp;(I36-1)),INDIRECT("B"&amp;I36))</f>
         <v>Delhi</v>
       </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
       <c r="F36" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F36" ca="1">IF(INDIRECT("E"&amp;I36)=0,INDIRECT("F"&amp;(I36-1)),INDIRECT("E"&amp;I36))</f>
         <v>Delhi</v>
@@ -5042,15 +5042,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
       <c r="C37" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C37" ca="1">IF(INDIRECT("B"&amp;I37)=0,INDIRECT("C"&amp;(I37-1)),INDIRECT("B"&amp;I37))</f>
         <v>Delhi</v>
       </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
       <c r="F37" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F37" ca="1">IF(INDIRECT("E"&amp;I37)=0,INDIRECT("F"&amp;(I37-1)),INDIRECT("E"&amp;I37))</f>
         <v>Delhi</v>
@@ -5065,15 +5065,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
       <c r="C38" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C38" ca="1">IF(INDIRECT("B"&amp;I38)=0,INDIRECT("C"&amp;(I38-1)),INDIRECT("B"&amp;I38))</f>
         <v>Delhi</v>
       </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
       <c r="F38" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F38" ca="1">IF(INDIRECT("E"&amp;I38)=0,INDIRECT("F"&amp;(I38-1)),INDIRECT("E"&amp;I38))</f>
         <v>Delhi</v>
@@ -5088,15 +5088,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
       <c r="C39" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C39" ca="1">IF(INDIRECT("B"&amp;I39)=0,INDIRECT("C"&amp;(I39-1)),INDIRECT("B"&amp;I39))</f>
         <v>Delhi</v>
       </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
       <c r="F39" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F39" ca="1">IF(INDIRECT("E"&amp;I39)=0,INDIRECT("F"&amp;(I39-1)),INDIRECT("E"&amp;I39))</f>
         <v>Delhi</v>
@@ -5111,15 +5111,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
       <c r="C40" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C40" ca="1">IF(INDIRECT("B"&amp;I40)=0,INDIRECT("C"&amp;(I40-1)),INDIRECT("B"&amp;I40))</f>
         <v>Delhi</v>
       </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
       <c r="F40" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F40" ca="1">IF(INDIRECT("E"&amp;I40)=0,INDIRECT("F"&amp;(I40-1)),INDIRECT("E"&amp;I40))</f>
         <v>Delhi</v>
@@ -5134,15 +5134,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
       <c r="C41" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C41" ca="1">IF(INDIRECT("B"&amp;I41)=0,INDIRECT("C"&amp;(I41-1)),INDIRECT("B"&amp;I41))</f>
         <v>Delhi</v>
       </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
       <c r="F41" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F41" ca="1">IF(INDIRECT("E"&amp;I41)=0,INDIRECT("F"&amp;(I41-1)),INDIRECT("E"&amp;I41))</f>
         <v>Delhi</v>
@@ -5157,15 +5157,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
       <c r="C42" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C42" ca="1">IF(INDIRECT("B"&amp;I42)=0,INDIRECT("C"&amp;(I42-1)),INDIRECT("B"&amp;I42))</f>
         <v>Delhi</v>
       </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
       <c r="F42" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F42" ca="1">IF(INDIRECT("E"&amp;I42)=0,INDIRECT("F"&amp;(I42-1)),INDIRECT("E"&amp;I42))</f>
         <v>Delhi</v>
@@ -5180,15 +5180,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
       <c r="C43" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C43" ca="1">IF(INDIRECT("B"&amp;I43)=0,INDIRECT("C"&amp;(I43-1)),INDIRECT("B"&amp;I43))</f>
         <v>Delhi</v>
       </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
       <c r="F43" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F43" ca="1">IF(INDIRECT("E"&amp;I43)=0,INDIRECT("F"&amp;(I43-1)),INDIRECT("E"&amp;I43))</f>
         <v>Delhi</v>
@@ -5203,15 +5203,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
       <c r="C44" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C44" ca="1">IF(INDIRECT("B"&amp;I44)=0,INDIRECT("C"&amp;(I44-1)),INDIRECT("B"&amp;I44))</f>
         <v>Delhi</v>
       </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
       <c r="F44" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F44" ca="1">IF(INDIRECT("E"&amp;I44)=0,INDIRECT("F"&amp;(I44-1)),INDIRECT("E"&amp;I44))</f>
         <v>Delhi</v>
@@ -5226,15 +5226,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
       <c r="C45" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C45" ca="1">IF(INDIRECT("B"&amp;I45)=0,INDIRECT("C"&amp;(I45-1)),INDIRECT("B"&amp;I45))</f>
         <v>Delhi</v>
       </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
       <c r="F45" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F45" ca="1">IF(INDIRECT("E"&amp;I45)=0,INDIRECT("F"&amp;(I45-1)),INDIRECT("E"&amp;I45))</f>
         <v>Delhi</v>
@@ -5249,15 +5249,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
       <c r="C46" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C46" ca="1">IF(INDIRECT("B"&amp;I46)=0,INDIRECT("C"&amp;(I46-1)),INDIRECT("B"&amp;I46))</f>
         <v>Delhi</v>
       </c>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
       <c r="F46" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F46" ca="1">IF(INDIRECT("E"&amp;I46)=0,INDIRECT("F"&amp;(I46-1)),INDIRECT("E"&amp;I46))</f>
         <v>Delhi</v>
@@ -5272,15 +5272,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
       <c r="C47" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C47" ca="1">IF(INDIRECT("B"&amp;I47)=0,INDIRECT("C"&amp;(I47-1)),INDIRECT("B"&amp;I47))</f>
         <v>Delhi</v>
       </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
       <c r="F47" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F47" ca="1">IF(INDIRECT("E"&amp;I47)=0,INDIRECT("F"&amp;(I47-1)),INDIRECT("E"&amp;I47))</f>
         <v>Delhi</v>
@@ -5295,15 +5295,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
       <c r="C48" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C48" ca="1">IF(INDIRECT("B"&amp;I48)=0,INDIRECT("C"&amp;(I48-1)),INDIRECT("B"&amp;I48))</f>
         <v>Delhi</v>
       </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
       <c r="F48" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F48" ca="1">IF(INDIRECT("E"&amp;I48)=0,INDIRECT("F"&amp;(I48-1)),INDIRECT("E"&amp;I48))</f>
         <v>Delhi</v>
@@ -5318,15 +5318,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
       <c r="C49" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C49" ca="1">IF(INDIRECT("B"&amp;I49)=0,INDIRECT("C"&amp;(I49-1)),INDIRECT("B"&amp;I49))</f>
         <v>Delhi</v>
       </c>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
       <c r="F49" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F49" ca="1">IF(INDIRECT("E"&amp;I49)=0,INDIRECT("F"&amp;(I49-1)),INDIRECT("E"&amp;I49))</f>
         <v>Delhi</v>
@@ -5341,15 +5341,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
       <c r="C50" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C50" ca="1">IF(INDIRECT("B"&amp;I50)=0,INDIRECT("C"&amp;(I50-1)),INDIRECT("B"&amp;I50))</f>
         <v>Delhi</v>
       </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
       <c r="F50" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F50" ca="1">IF(INDIRECT("E"&amp;I50)=0,INDIRECT("F"&amp;(I50-1)),INDIRECT("E"&amp;I50))</f>
         <v>Delhi</v>
@@ -5364,15 +5364,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
       <c r="C51" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C51" ca="1">IF(INDIRECT("B"&amp;I51)=0,INDIRECT("C"&amp;(I51-1)),INDIRECT("B"&amp;I51))</f>
         <v>Delhi</v>
       </c>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
       <c r="F51" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F51" ca="1">IF(INDIRECT("E"&amp;I51)=0,INDIRECT("F"&amp;(I51-1)),INDIRECT("E"&amp;I51))</f>
         <v>Delhi</v>
@@ -5387,15 +5387,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
       <c r="C52" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C52" ca="1">IF(INDIRECT("B"&amp;I52)=0,INDIRECT("C"&amp;(I52-1)),INDIRECT("B"&amp;I52))</f>
         <v>Delhi</v>
       </c>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
       <c r="F52" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F52" ca="1">IF(INDIRECT("E"&amp;I52)=0,INDIRECT("F"&amp;(I52-1)),INDIRECT("E"&amp;I52))</f>
         <v>Delhi</v>
@@ -5410,15 +5410,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
       <c r="C53" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C53" ca="1">IF(INDIRECT("B"&amp;I53)=0,INDIRECT("C"&amp;(I53-1)),INDIRECT("B"&amp;I53))</f>
         <v>Delhi</v>
       </c>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
       <c r="F53" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F53" ca="1">IF(INDIRECT("E"&amp;I53)=0,INDIRECT("F"&amp;(I53-1)),INDIRECT("E"&amp;I53))</f>
         <v>Delhi</v>
@@ -5433,15 +5433,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
       <c r="C54" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C54" ca="1">IF(INDIRECT("B"&amp;I54)=0,INDIRECT("C"&amp;(I54-1)),INDIRECT("B"&amp;I54))</f>
         <v>Delhi</v>
       </c>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
       <c r="F54" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F54" ca="1">IF(INDIRECT("E"&amp;I54)=0,INDIRECT("F"&amp;(I54-1)),INDIRECT("E"&amp;I54))</f>
         <v>Delhi</v>
@@ -5456,15 +5456,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9"/>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
       <c r="C55" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C55" ca="1">IF(INDIRECT("B"&amp;I55)=0,INDIRECT("C"&amp;(I55-1)),INDIRECT("B"&amp;I55))</f>
         <v>Delhi</v>
       </c>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
       <c r="F55" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F55" ca="1">IF(INDIRECT("E"&amp;I55)=0,INDIRECT("F"&amp;(I55-1)),INDIRECT("E"&amp;I55))</f>
         <v>Delhi</v>
@@ -5479,15 +5479,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
       <c r="C56" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C56" ca="1">IF(INDIRECT("B"&amp;I56)=0,INDIRECT("C"&amp;(I56-1)),INDIRECT("B"&amp;I56))</f>
         <v>Delhi</v>
       </c>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
       <c r="F56" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F56" ca="1">IF(INDIRECT("E"&amp;I56)=0,INDIRECT("F"&amp;(I56-1)),INDIRECT("E"&amp;I56))</f>
         <v>Delhi</v>
@@ -5502,15 +5502,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9"/>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
       <c r="C57" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C57" ca="1">IF(INDIRECT("B"&amp;I57)=0,INDIRECT("C"&amp;(I57-1)),INDIRECT("B"&amp;I57))</f>
         <v>Delhi</v>
       </c>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
       <c r="F57" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F57" ca="1">IF(INDIRECT("E"&amp;I57)=0,INDIRECT("F"&amp;(I57-1)),INDIRECT("E"&amp;I57))</f>
         <v>Delhi</v>
@@ -5525,15 +5525,15 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9"/>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A58" s="12"/>
+      <c r="B58" s="12"/>
       <c r="C58" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C58" ca="1">IF(INDIRECT("B"&amp;I58)=0,INDIRECT("C"&amp;(I58-1)),INDIRECT("B"&amp;I58))</f>
         <v>Delhi</v>
       </c>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
       <c r="F58" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F58" ca="1">IF(INDIRECT("E"&amp;I58)=0,INDIRECT("F"&amp;(I58-1)),INDIRECT("E"&amp;I58))</f>
         <v>Delhi</v>
@@ -5548,15 +5548,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9"/>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A59" s="12"/>
+      <c r="B59" s="12"/>
       <c r="C59" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C59" ca="1">IF(INDIRECT("B"&amp;I59)=0,INDIRECT("C"&amp;(I59-1)),INDIRECT("B"&amp;I59))</f>
         <v>Delhi</v>
       </c>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
       <c r="F59" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F59" ca="1">IF(INDIRECT("E"&amp;I59)=0,INDIRECT("F"&amp;(I59-1)),INDIRECT("E"&amp;I59))</f>
         <v>Delhi</v>
@@ -5571,11 +5571,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A60" s="12">
         <v>6</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="12" t="s">
         <v>87</v>
       </c>
       <c r="C60" s="2" t="str" cm="1">
@@ -5602,9 +5602,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="9"/>
-      <c r="B61" s="9"/>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A61" s="12"/>
+      <c r="B61" s="12"/>
       <c r="C61" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C61" ca="1">IF(INDIRECT("B"&amp;I61)=0,INDIRECT("C"&amp;(I61-1)),INDIRECT("B"&amp;I61))</f>
         <v>Gujarat</v>
@@ -5629,9 +5629,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="9"/>
-      <c r="B62" s="9"/>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A62" s="12"/>
+      <c r="B62" s="12"/>
       <c r="C62" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C62" ca="1">IF(INDIRECT("B"&amp;I62)=0,INDIRECT("C"&amp;(I62-1)),INDIRECT("B"&amp;I62))</f>
         <v>Gujarat</v>
@@ -5656,9 +5656,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="9"/>
-      <c r="B63" s="9"/>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A63" s="12"/>
+      <c r="B63" s="12"/>
       <c r="C63" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C63" ca="1">IF(INDIRECT("B"&amp;I63)=0,INDIRECT("C"&amp;(I63-1)),INDIRECT("B"&amp;I63))</f>
         <v>Gujarat</v>
@@ -5683,9 +5683,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="9"/>
-      <c r="B64" s="9"/>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A64" s="12"/>
+      <c r="B64" s="12"/>
       <c r="C64" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C64" ca="1">IF(INDIRECT("B"&amp;I64)=0,INDIRECT("C"&amp;(I64-1)),INDIRECT("B"&amp;I64))</f>
         <v>Gujarat</v>
@@ -5710,9 +5710,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="9"/>
-      <c r="B65" s="9"/>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A65" s="12"/>
+      <c r="B65" s="12"/>
       <c r="C65" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C65" ca="1">IF(INDIRECT("B"&amp;I65)=0,INDIRECT("C"&amp;(I65-1)),INDIRECT("B"&amp;I65))</f>
         <v>Gujarat</v>
@@ -5737,11 +5737,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A66" s="12">
         <v>7</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="12" t="s">
         <v>142</v>
       </c>
       <c r="C66" s="2" t="str" cm="1">
@@ -5768,9 +5768,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="9"/>
-      <c r="B67" s="9"/>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A67" s="12"/>
+      <c r="B67" s="12"/>
       <c r="C67" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C67" ca="1">IF(INDIRECT("B"&amp;I67)=0,INDIRECT("C"&amp;(I67-1)),INDIRECT("B"&amp;I67))</f>
         <v>Haryana</v>
@@ -5795,9 +5795,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="9"/>
-      <c r="B68" s="9"/>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A68" s="12"/>
+      <c r="B68" s="12"/>
       <c r="C68" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C68" ca="1">IF(INDIRECT("B"&amp;I68)=0,INDIRECT("C"&amp;(I68-1)),INDIRECT("B"&amp;I68))</f>
         <v>Haryana</v>
@@ -5822,9 +5822,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="9"/>
-      <c r="B69" s="9"/>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A69" s="12"/>
+      <c r="B69" s="12"/>
       <c r="C69" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C69" ca="1">IF(INDIRECT("B"&amp;I69)=0,INDIRECT("C"&amp;(I69-1)),INDIRECT("B"&amp;I69))</f>
         <v>Haryana</v>
@@ -5849,9 +5849,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9"/>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A70" s="12"/>
+      <c r="B70" s="12"/>
       <c r="C70" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C70" ca="1">IF(INDIRECT("B"&amp;I70)=0,INDIRECT("C"&amp;(I70-1)),INDIRECT("B"&amp;I70))</f>
         <v>Haryana</v>
@@ -5876,9 +5876,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="9"/>
-      <c r="B71" s="9"/>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A71" s="12"/>
+      <c r="B71" s="12"/>
       <c r="C71" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C71" ca="1">IF(INDIRECT("B"&amp;I71)=0,INDIRECT("C"&amp;(I71-1)),INDIRECT("B"&amp;I71))</f>
         <v>Haryana</v>
@@ -5903,17 +5903,17 @@
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="9"/>
-      <c r="B72" s="9"/>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A72" s="12"/>
+      <c r="B72" s="12"/>
       <c r="C72" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C72" ca="1">IF(INDIRECT("B"&amp;I72)=0,INDIRECT("C"&amp;(I72-1)),INDIRECT("B"&amp;I72))</f>
         <v>Haryana</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D72" s="12">
         <v>25</v>
       </c>
-      <c r="E72" s="9" t="s">
+      <c r="E72" s="12" t="s">
         <v>104</v>
       </c>
       <c r="F72" s="2" t="str" cm="1">
@@ -5930,15 +5930,15 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="9"/>
-      <c r="B73" s="9"/>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A73" s="12"/>
+      <c r="B73" s="12"/>
       <c r="C73" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C73" ca="1">IF(INDIRECT("B"&amp;I73)=0,INDIRECT("C"&amp;(I73-1)),INDIRECT("B"&amp;I73))</f>
         <v>Haryana</v>
       </c>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
       <c r="F73" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F73" ca="1">IF(INDIRECT("E"&amp;I73)=0,INDIRECT("F"&amp;(I73-1)),INDIRECT("E"&amp;I73))</f>
         <v>Faridabad</v>
@@ -5953,15 +5953,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="9"/>
-      <c r="B74" s="9"/>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A74" s="12"/>
+      <c r="B74" s="12"/>
       <c r="C74" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C74" ca="1">IF(INDIRECT("B"&amp;I74)=0,INDIRECT("C"&amp;(I74-1)),INDIRECT("B"&amp;I74))</f>
         <v>Haryana</v>
       </c>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
       <c r="F74" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F74" ca="1">IF(INDIRECT("E"&amp;I74)=0,INDIRECT("F"&amp;(I74-1)),INDIRECT("E"&amp;I74))</f>
         <v>Faridabad</v>
@@ -5976,15 +5976,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="9"/>
-      <c r="B75" s="9"/>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A75" s="12"/>
+      <c r="B75" s="12"/>
       <c r="C75" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C75" ca="1">IF(INDIRECT("B"&amp;I75)=0,INDIRECT("C"&amp;(I75-1)),INDIRECT("B"&amp;I75))</f>
         <v>Haryana</v>
       </c>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
       <c r="F75" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F75" ca="1">IF(INDIRECT("E"&amp;I75)=0,INDIRECT("F"&amp;(I75-1)),INDIRECT("E"&amp;I75))</f>
         <v>Faridabad</v>
@@ -5999,9 +5999,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="9"/>
-      <c r="B76" s="9"/>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A76" s="12"/>
+      <c r="B76" s="12"/>
       <c r="C76" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C76" ca="1">IF(INDIRECT("B"&amp;I76)=0,INDIRECT("C"&amp;(I76-1)),INDIRECT("B"&amp;I76))</f>
         <v>Haryana</v>
@@ -6026,17 +6026,17 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="9"/>
-      <c r="B77" s="9"/>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A77" s="12"/>
+      <c r="B77" s="12"/>
       <c r="C77" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C77" ca="1">IF(INDIRECT("B"&amp;I77)=0,INDIRECT("C"&amp;(I77-1)),INDIRECT("B"&amp;I77))</f>
         <v>Haryana</v>
       </c>
-      <c r="D77" s="9">
+      <c r="D77" s="12">
         <v>27</v>
       </c>
-      <c r="E77" s="9" t="s">
+      <c r="E77" s="12" t="s">
         <v>111</v>
       </c>
       <c r="F77" s="2" t="str" cm="1">
@@ -6053,15 +6053,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="9"/>
-      <c r="B78" s="9"/>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A78" s="12"/>
+      <c r="B78" s="12"/>
       <c r="C78" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C78" ca="1">IF(INDIRECT("B"&amp;I78)=0,INDIRECT("C"&amp;(I78-1)),INDIRECT("B"&amp;I78))</f>
         <v>Haryana</v>
       </c>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
       <c r="F78" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F78" ca="1">IF(INDIRECT("E"&amp;I78)=0,INDIRECT("F"&amp;(I78-1)),INDIRECT("E"&amp;I78))</f>
         <v>Gurgaon</v>
@@ -6076,15 +6076,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="9"/>
-      <c r="B79" s="9"/>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A79" s="12"/>
+      <c r="B79" s="12"/>
       <c r="C79" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C79" ca="1">IF(INDIRECT("B"&amp;I79)=0,INDIRECT("C"&amp;(I79-1)),INDIRECT("B"&amp;I79))</f>
         <v>Haryana</v>
       </c>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
       <c r="F79" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F79" ca="1">IF(INDIRECT("E"&amp;I79)=0,INDIRECT("F"&amp;(I79-1)),INDIRECT("E"&amp;I79))</f>
         <v>Gurgaon</v>
@@ -6099,15 +6099,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="9"/>
-      <c r="B80" s="9"/>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A80" s="12"/>
+      <c r="B80" s="12"/>
       <c r="C80" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C80" ca="1">IF(INDIRECT("B"&amp;I80)=0,INDIRECT("C"&amp;(I80-1)),INDIRECT("B"&amp;I80))</f>
         <v>Haryana</v>
       </c>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
       <c r="F80" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F80" ca="1">IF(INDIRECT("E"&amp;I80)=0,INDIRECT("F"&amp;(I80-1)),INDIRECT("E"&amp;I80))</f>
         <v>Gurgaon</v>
@@ -6122,9 +6122,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="9"/>
-      <c r="B81" s="9"/>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A81" s="12"/>
+      <c r="B81" s="12"/>
       <c r="C81" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C81" ca="1">IF(INDIRECT("B"&amp;I81)=0,INDIRECT("C"&amp;(I81-1)),INDIRECT("B"&amp;I81))</f>
         <v>Haryana</v>
@@ -6149,9 +6149,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="9"/>
-      <c r="B82" s="9"/>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A82" s="12"/>
+      <c r="B82" s="12"/>
       <c r="C82" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C82" ca="1">IF(INDIRECT("B"&amp;I82)=0,INDIRECT("C"&amp;(I82-1)),INDIRECT("B"&amp;I82))</f>
         <v>Haryana</v>
@@ -6176,9 +6176,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="9"/>
-      <c r="B83" s="9"/>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A83" s="12"/>
+      <c r="B83" s="12"/>
       <c r="C83" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C83" ca="1">IF(INDIRECT("B"&amp;I83)=0,INDIRECT("C"&amp;(I83-1)),INDIRECT("B"&amp;I83))</f>
         <v>Haryana</v>
@@ -6203,9 +6203,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="9"/>
-      <c r="B84" s="9"/>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A84" s="12"/>
+      <c r="B84" s="12"/>
       <c r="C84" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C84" ca="1">IF(INDIRECT("B"&amp;I84)=0,INDIRECT("C"&amp;(I84-1)),INDIRECT("B"&amp;I84))</f>
         <v>Haryana</v>
@@ -6230,9 +6230,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="9"/>
-      <c r="B85" s="9"/>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A85" s="12"/>
+      <c r="B85" s="12"/>
       <c r="C85" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C85" ca="1">IF(INDIRECT("B"&amp;I85)=0,INDIRECT("C"&amp;(I85-1)),INDIRECT("B"&amp;I85))</f>
         <v>Haryana</v>
@@ -6257,9 +6257,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="9"/>
-      <c r="B86" s="9"/>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A86" s="12"/>
+      <c r="B86" s="12"/>
       <c r="C86" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C86" ca="1">IF(INDIRECT("B"&amp;I86)=0,INDIRECT("C"&amp;(I86-1)),INDIRECT("B"&amp;I86))</f>
         <v>Haryana</v>
@@ -6284,9 +6284,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="9"/>
-      <c r="B87" s="9"/>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A87" s="12"/>
+      <c r="B87" s="12"/>
       <c r="C87" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C87" ca="1">IF(INDIRECT("B"&amp;I87)=0,INDIRECT("C"&amp;(I87-1)),INDIRECT("B"&amp;I87))</f>
         <v>Haryana</v>
@@ -6311,9 +6311,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="9"/>
-      <c r="B88" s="9"/>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A88" s="12"/>
+      <c r="B88" s="12"/>
       <c r="C88" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C88" ca="1">IF(INDIRECT("B"&amp;I88)=0,INDIRECT("C"&amp;(I88-1)),INDIRECT("B"&amp;I88))</f>
         <v>Haryana</v>
@@ -6338,9 +6338,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="9"/>
-      <c r="B89" s="9"/>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A89" s="12"/>
+      <c r="B89" s="12"/>
       <c r="C89" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C89" ca="1">IF(INDIRECT("B"&amp;I89)=0,INDIRECT("C"&amp;(I89-1)),INDIRECT("B"&amp;I89))</f>
         <v>Haryana</v>
@@ -6365,9 +6365,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="9"/>
-      <c r="B90" s="9"/>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A90" s="12"/>
+      <c r="B90" s="12"/>
       <c r="C90" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C90" ca="1">IF(INDIRECT("B"&amp;I90)=0,INDIRECT("C"&amp;(I90-1)),INDIRECT("B"&amp;I90))</f>
         <v>Haryana</v>
@@ -6392,9 +6392,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="9"/>
-      <c r="B91" s="9"/>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A91" s="12"/>
+      <c r="B91" s="12"/>
       <c r="C91" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C91" ca="1">IF(INDIRECT("B"&amp;I91)=0,INDIRECT("C"&amp;(I91-1)),INDIRECT("B"&amp;I91))</f>
         <v>Haryana</v>
@@ -6419,9 +6419,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="9"/>
-      <c r="B92" s="9"/>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A92" s="12"/>
+      <c r="B92" s="12"/>
       <c r="C92" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C92" ca="1">IF(INDIRECT("B"&amp;I92)=0,INDIRECT("C"&amp;(I92-1)),INDIRECT("B"&amp;I92))</f>
         <v>Haryana</v>
@@ -6446,9 +6446,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="9"/>
-      <c r="B93" s="9"/>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A93" s="12"/>
+      <c r="B93" s="12"/>
       <c r="C93" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C93" ca="1">IF(INDIRECT("B"&amp;I93)=0,INDIRECT("C"&amp;(I93-1)),INDIRECT("B"&amp;I93))</f>
         <v>Haryana</v>
@@ -6473,9 +6473,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="9"/>
-      <c r="B94" s="9"/>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A94" s="12"/>
+      <c r="B94" s="12"/>
       <c r="C94" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C94" ca="1">IF(INDIRECT("B"&amp;I94)=0,INDIRECT("C"&amp;(I94-1)),INDIRECT("B"&amp;I94))</f>
         <v>Haryana</v>
@@ -6500,9 +6500,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="9"/>
-      <c r="B95" s="9"/>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A95" s="12"/>
+      <c r="B95" s="12"/>
       <c r="C95" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C95" ca="1">IF(INDIRECT("B"&amp;I95)=0,INDIRECT("C"&amp;(I95-1)),INDIRECT("B"&amp;I95))</f>
         <v>Haryana</v>
@@ -6527,7 +6527,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A96" s="2">
         <v>8</v>
       </c>
@@ -6558,11 +6558,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A97" s="12">
         <v>9</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="12" t="s">
         <v>177</v>
       </c>
       <c r="C97" s="2" t="str" cm="1">
@@ -6589,17 +6589,17 @@
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="9"/>
-      <c r="B98" s="9"/>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A98" s="12"/>
+      <c r="B98" s="12"/>
       <c r="C98" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C98" ca="1">IF(INDIRECT("B"&amp;I98)=0,INDIRECT("C"&amp;(I98-1)),INDIRECT("B"&amp;I98))</f>
         <v>Karnataka</v>
       </c>
-      <c r="D98" s="9">
+      <c r="D98" s="12">
         <v>45</v>
       </c>
-      <c r="E98" s="9" t="s">
+      <c r="E98" s="12" t="s">
         <v>158</v>
       </c>
       <c r="F98" s="2" t="str" cm="1">
@@ -6616,15 +6616,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="9"/>
-      <c r="B99" s="9"/>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A99" s="12"/>
+      <c r="B99" s="12"/>
       <c r="C99" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C99" ca="1">IF(INDIRECT("B"&amp;I99)=0,INDIRECT("C"&amp;(I99-1)),INDIRECT("B"&amp;I99))</f>
         <v>Karnataka</v>
       </c>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
       <c r="F99" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F99" ca="1">IF(INDIRECT("E"&amp;I99)=0,INDIRECT("F"&amp;(I99-1)),INDIRECT("E"&amp;I99))</f>
         <v>Bangalore</v>
@@ -6639,15 +6639,15 @@
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100" s="9"/>
-      <c r="B100" s="9"/>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A100" s="12"/>
+      <c r="B100" s="12"/>
       <c r="C100" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C100" ca="1">IF(INDIRECT("B"&amp;I100)=0,INDIRECT("C"&amp;(I100-1)),INDIRECT("B"&amp;I100))</f>
         <v>Karnataka</v>
       </c>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
       <c r="F100" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F100" ca="1">IF(INDIRECT("E"&amp;I100)=0,INDIRECT("F"&amp;(I100-1)),INDIRECT("E"&amp;I100))</f>
         <v>Bangalore</v>
@@ -6662,15 +6662,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="9"/>
-      <c r="B101" s="9"/>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A101" s="12"/>
+      <c r="B101" s="12"/>
       <c r="C101" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C101" ca="1">IF(INDIRECT("B"&amp;I101)=0,INDIRECT("C"&amp;(I101-1)),INDIRECT("B"&amp;I101))</f>
         <v>Karnataka</v>
       </c>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
       <c r="F101" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F101" ca="1">IF(INDIRECT("E"&amp;I101)=0,INDIRECT("F"&amp;(I101-1)),INDIRECT("E"&amp;I101))</f>
         <v>Bangalore</v>
@@ -6685,15 +6685,15 @@
         <v>101</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="9"/>
-      <c r="B102" s="9"/>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A102" s="12"/>
+      <c r="B102" s="12"/>
       <c r="C102" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C102" ca="1">IF(INDIRECT("B"&amp;I102)=0,INDIRECT("C"&amp;(I102-1)),INDIRECT("B"&amp;I102))</f>
         <v>Karnataka</v>
       </c>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
       <c r="F102" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F102" ca="1">IF(INDIRECT("E"&amp;I102)=0,INDIRECT("F"&amp;(I102-1)),INDIRECT("E"&amp;I102))</f>
         <v>Bangalore</v>
@@ -6708,15 +6708,15 @@
         <v>102</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" s="9"/>
-      <c r="B103" s="9"/>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A103" s="12"/>
+      <c r="B103" s="12"/>
       <c r="C103" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C103" ca="1">IF(INDIRECT("B"&amp;I103)=0,INDIRECT("C"&amp;(I103-1)),INDIRECT("B"&amp;I103))</f>
         <v>Karnataka</v>
       </c>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
       <c r="F103" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F103" ca="1">IF(INDIRECT("E"&amp;I103)=0,INDIRECT("F"&amp;(I103-1)),INDIRECT("E"&amp;I103))</f>
         <v>Bangalore</v>
@@ -6731,15 +6731,15 @@
         <v>103</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="9"/>
-      <c r="B104" s="9"/>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A104" s="12"/>
+      <c r="B104" s="12"/>
       <c r="C104" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C104" ca="1">IF(INDIRECT("B"&amp;I104)=0,INDIRECT("C"&amp;(I104-1)),INDIRECT("B"&amp;I104))</f>
         <v>Karnataka</v>
       </c>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
       <c r="F104" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F104" ca="1">IF(INDIRECT("E"&amp;I104)=0,INDIRECT("F"&amp;(I104-1)),INDIRECT("E"&amp;I104))</f>
         <v>Bangalore</v>
@@ -6754,15 +6754,15 @@
         <v>104</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="9"/>
-      <c r="B105" s="9"/>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A105" s="12"/>
+      <c r="B105" s="12"/>
       <c r="C105" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C105" ca="1">IF(INDIRECT("B"&amp;I105)=0,INDIRECT("C"&amp;(I105-1)),INDIRECT("B"&amp;I105))</f>
         <v>Karnataka</v>
       </c>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
       <c r="F105" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F105" ca="1">IF(INDIRECT("E"&amp;I105)=0,INDIRECT("F"&amp;(I105-1)),INDIRECT("E"&amp;I105))</f>
         <v>Bangalore</v>
@@ -6777,15 +6777,15 @@
         <v>105</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" s="9"/>
-      <c r="B106" s="9"/>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A106" s="12"/>
+      <c r="B106" s="12"/>
       <c r="C106" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C106" ca="1">IF(INDIRECT("B"&amp;I106)=0,INDIRECT("C"&amp;(I106-1)),INDIRECT("B"&amp;I106))</f>
         <v>Karnataka</v>
       </c>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
       <c r="F106" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F106" ca="1">IF(INDIRECT("E"&amp;I106)=0,INDIRECT("F"&amp;(I106-1)),INDIRECT("E"&amp;I106))</f>
         <v>Bangalore</v>
@@ -6800,15 +6800,15 @@
         <v>106</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107" s="9"/>
-      <c r="B107" s="9"/>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A107" s="12"/>
+      <c r="B107" s="12"/>
       <c r="C107" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C107" ca="1">IF(INDIRECT("B"&amp;I107)=0,INDIRECT("C"&amp;(I107-1)),INDIRECT("B"&amp;I107))</f>
         <v>Karnataka</v>
       </c>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
       <c r="F107" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F107" ca="1">IF(INDIRECT("E"&amp;I107)=0,INDIRECT("F"&amp;(I107-1)),INDIRECT("E"&amp;I107))</f>
         <v>Bangalore</v>
@@ -6823,9 +6823,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108" s="9"/>
-      <c r="B108" s="9"/>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A108" s="12"/>
+      <c r="B108" s="12"/>
       <c r="C108" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C108" ca="1">IF(INDIRECT("B"&amp;I108)=0,INDIRECT("C"&amp;(I108-1)),INDIRECT("B"&amp;I108))</f>
         <v>Karnataka</v>
@@ -6850,9 +6850,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A109" s="9"/>
-      <c r="B109" s="9"/>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A109" s="12"/>
+      <c r="B109" s="12"/>
       <c r="C109" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C109" ca="1">IF(INDIRECT("B"&amp;I109)=0,INDIRECT("C"&amp;(I109-1)),INDIRECT("B"&amp;I109))</f>
         <v>Karnataka</v>
@@ -6877,9 +6877,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A110" s="9"/>
-      <c r="B110" s="9"/>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A110" s="12"/>
+      <c r="B110" s="12"/>
       <c r="C110" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C110" ca="1">IF(INDIRECT("B"&amp;I110)=0,INDIRECT("C"&amp;(I110-1)),INDIRECT("B"&amp;I110))</f>
         <v>Karnataka</v>
@@ -6904,9 +6904,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A111" s="9"/>
-      <c r="B111" s="9"/>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A111" s="12"/>
+      <c r="B111" s="12"/>
       <c r="C111" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C111" ca="1">IF(INDIRECT("B"&amp;I111)=0,INDIRECT("C"&amp;(I111-1)),INDIRECT("B"&amp;I111))</f>
         <v>Karnataka</v>
@@ -6931,9 +6931,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A112" s="9"/>
-      <c r="B112" s="9"/>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A112" s="12"/>
+      <c r="B112" s="12"/>
       <c r="C112" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C112" ca="1">IF(INDIRECT("B"&amp;I112)=0,INDIRECT("C"&amp;(I112-1)),INDIRECT("B"&amp;I112))</f>
         <v>Karnataka</v>
@@ -6958,9 +6958,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A113" s="9"/>
-      <c r="B113" s="9"/>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A113" s="12"/>
+      <c r="B113" s="12"/>
       <c r="C113" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C113" ca="1">IF(INDIRECT("B"&amp;I113)=0,INDIRECT("C"&amp;(I113-1)),INDIRECT("B"&amp;I113))</f>
         <v>Karnataka</v>
@@ -6985,9 +6985,9 @@
         <v>113</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A114" s="9"/>
-      <c r="B114" s="9"/>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A114" s="12"/>
+      <c r="B114" s="12"/>
       <c r="C114" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C114" ca="1">IF(INDIRECT("B"&amp;I114)=0,INDIRECT("C"&amp;(I114-1)),INDIRECT("B"&amp;I114))</f>
         <v>Karnataka</v>
@@ -7012,9 +7012,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A115" s="9"/>
-      <c r="B115" s="9"/>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A115" s="12"/>
+      <c r="B115" s="12"/>
       <c r="C115" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C115" ca="1">IF(INDIRECT("B"&amp;I115)=0,INDIRECT("C"&amp;(I115-1)),INDIRECT("B"&amp;I115))</f>
         <v>Karnataka</v>
@@ -7039,9 +7039,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A116" s="9"/>
-      <c r="B116" s="9"/>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A116" s="12"/>
+      <c r="B116" s="12"/>
       <c r="C116" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C116" ca="1">IF(INDIRECT("B"&amp;I116)=0,INDIRECT("C"&amp;(I116-1)),INDIRECT("B"&amp;I116))</f>
         <v>Karnataka</v>
@@ -7066,11 +7066,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A117" s="9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A117" s="12">
         <v>10</v>
       </c>
-      <c r="B117" s="9" t="s">
+      <c r="B117" s="12" t="s">
         <v>193</v>
       </c>
       <c r="C117" s="2" t="str" cm="1">
@@ -7097,9 +7097,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A118" s="9"/>
-      <c r="B118" s="9"/>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A118" s="12"/>
+      <c r="B118" s="12"/>
       <c r="C118" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C118" ca="1">IF(INDIRECT("B"&amp;I118)=0,INDIRECT("C"&amp;(I118-1)),INDIRECT("B"&amp;I118))</f>
         <v>Kerala</v>
@@ -7124,9 +7124,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A119" s="9"/>
-      <c r="B119" s="9"/>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A119" s="12"/>
+      <c r="B119" s="12"/>
       <c r="C119" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C119" ca="1">IF(INDIRECT("B"&amp;I119)=0,INDIRECT("C"&amp;(I119-1)),INDIRECT("B"&amp;I119))</f>
         <v>Kerala</v>
@@ -7151,9 +7151,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A120" s="9"/>
-      <c r="B120" s="9"/>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A120" s="12"/>
+      <c r="B120" s="12"/>
       <c r="C120" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C120" ca="1">IF(INDIRECT("B"&amp;I120)=0,INDIRECT("C"&amp;(I120-1)),INDIRECT("B"&amp;I120))</f>
         <v>Kerala</v>
@@ -7178,9 +7178,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A121" s="9"/>
-      <c r="B121" s="9"/>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A121" s="12"/>
+      <c r="B121" s="12"/>
       <c r="C121" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C121" ca="1">IF(INDIRECT("B"&amp;I121)=0,INDIRECT("C"&amp;(I121-1)),INDIRECT("B"&amp;I121))</f>
         <v>Kerala</v>
@@ -7205,9 +7205,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A122" s="9"/>
-      <c r="B122" s="9"/>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A122" s="12"/>
+      <c r="B122" s="12"/>
       <c r="C122" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C122" ca="1">IF(INDIRECT("B"&amp;I122)=0,INDIRECT("C"&amp;(I122-1)),INDIRECT("B"&amp;I122))</f>
         <v>Kerala</v>
@@ -7232,17 +7232,17 @@
         <v>122</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A123" s="9"/>
-      <c r="B123" s="9"/>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A123" s="12"/>
+      <c r="B123" s="12"/>
       <c r="C123" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C123" ca="1">IF(INDIRECT("B"&amp;I123)=0,INDIRECT("C"&amp;(I123-1)),INDIRECT("B"&amp;I123))</f>
         <v>Kerala</v>
       </c>
-      <c r="D123" s="9">
+      <c r="D123" s="12">
         <v>61</v>
       </c>
-      <c r="E123" s="9" t="s">
+      <c r="E123" s="12" t="s">
         <v>192</v>
       </c>
       <c r="F123" s="2" t="str" cm="1">
@@ -7259,15 +7259,15 @@
         <v>123</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A124" s="9"/>
-      <c r="B124" s="9"/>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A124" s="12"/>
+      <c r="B124" s="12"/>
       <c r="C124" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C124" ca="1">IF(INDIRECT("B"&amp;I124)=0,INDIRECT("C"&amp;(I124-1)),INDIRECT("B"&amp;I124))</f>
         <v>Kerala</v>
       </c>
-      <c r="D124" s="9"/>
-      <c r="E124" s="9"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="12"/>
       <c r="F124" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F124" ca="1">IF(INDIRECT("E"&amp;I124)=0,INDIRECT("F"&amp;(I124-1)),INDIRECT("E"&amp;I124))</f>
         <v>Thiruvananthapuram</v>
@@ -7282,11 +7282,11 @@
         <v>124</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A125" s="9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A125" s="12">
         <v>11</v>
       </c>
-      <c r="B125" s="9" t="s">
+      <c r="B125" s="12" t="s">
         <v>225</v>
       </c>
       <c r="C125" s="2" t="str" cm="1">
@@ -7313,9 +7313,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A126" s="9"/>
-      <c r="B126" s="9"/>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A126" s="12"/>
+      <c r="B126" s="12"/>
       <c r="C126" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C126" ca="1">IF(INDIRECT("B"&amp;I126)=0,INDIRECT("C"&amp;(I126-1)),INDIRECT("B"&amp;I126))</f>
         <v>MadhyaPradesh</v>
@@ -7340,9 +7340,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A127" s="9"/>
-      <c r="B127" s="9"/>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A127" s="12"/>
+      <c r="B127" s="12"/>
       <c r="C127" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C127" ca="1">IF(INDIRECT("B"&amp;I127)=0,INDIRECT("C"&amp;(I127-1)),INDIRECT("B"&amp;I127))</f>
         <v>MadhyaPradesh</v>
@@ -7367,17 +7367,17 @@
         <v>127</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A128" s="9"/>
-      <c r="B128" s="9"/>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A128" s="12"/>
+      <c r="B128" s="12"/>
       <c r="C128" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C128" ca="1">IF(INDIRECT("B"&amp;I128)=0,INDIRECT("C"&amp;(I128-1)),INDIRECT("B"&amp;I128))</f>
         <v>MadhyaPradesh</v>
       </c>
-      <c r="D128" s="9">
+      <c r="D128" s="12">
         <v>65</v>
       </c>
-      <c r="E128" s="9" t="s">
+      <c r="E128" s="12" t="s">
         <v>202</v>
       </c>
       <c r="F128" s="2" t="str" cm="1">
@@ -7394,15 +7394,15 @@
         <v>128</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A129" s="9"/>
-      <c r="B129" s="9"/>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A129" s="12"/>
+      <c r="B129" s="12"/>
       <c r="C129" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C129" ca="1">IF(INDIRECT("B"&amp;I129)=0,INDIRECT("C"&amp;(I129-1)),INDIRECT("B"&amp;I129))</f>
         <v>MadhyaPradesh</v>
       </c>
-      <c r="D129" s="9"/>
-      <c r="E129" s="9"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12"/>
       <c r="F129" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F129" ca="1">IF(INDIRECT("E"&amp;I129)=0,INDIRECT("F"&amp;(I129-1)),INDIRECT("E"&amp;I129))</f>
         <v>Gwalior</v>
@@ -7417,9 +7417,9 @@
         <v>129</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A130" s="9"/>
-      <c r="B130" s="9"/>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A130" s="12"/>
+      <c r="B130" s="12"/>
       <c r="C130" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C130" ca="1">IF(INDIRECT("B"&amp;I130)=0,INDIRECT("C"&amp;(I130-1)),INDIRECT("B"&amp;I130))</f>
         <v>MadhyaPradesh</v>
@@ -7444,9 +7444,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A131" s="9"/>
-      <c r="B131" s="9"/>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A131" s="12"/>
+      <c r="B131" s="12"/>
       <c r="C131" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C131" ca="1">IF(INDIRECT("B"&amp;I131)=0,INDIRECT("C"&amp;(I131-1)),INDIRECT("B"&amp;I131))</f>
         <v>MadhyaPradesh</v>
@@ -7471,9 +7471,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A132" s="9"/>
-      <c r="B132" s="9"/>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A132" s="12"/>
+      <c r="B132" s="12"/>
       <c r="C132" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C132" ca="1">IF(INDIRECT("B"&amp;I132)=0,INDIRECT("C"&amp;(I132-1)),INDIRECT("B"&amp;I132))</f>
         <v>MadhyaPradesh</v>
@@ -7498,9 +7498,9 @@
         <v>132</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A133" s="9"/>
-      <c r="B133" s="9"/>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A133" s="12"/>
+      <c r="B133" s="12"/>
       <c r="C133" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C133" ca="1">IF(INDIRECT("B"&amp;I133)=0,INDIRECT("C"&amp;(I133-1)),INDIRECT("B"&amp;I133))</f>
         <v>MadhyaPradesh</v>
@@ -7525,9 +7525,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A134" s="9"/>
-      <c r="B134" s="9"/>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A134" s="12"/>
+      <c r="B134" s="12"/>
       <c r="C134" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C134" ca="1">IF(INDIRECT("B"&amp;I134)=0,INDIRECT("C"&amp;(I134-1)),INDIRECT("B"&amp;I134))</f>
         <v>MadhyaPradesh</v>
@@ -7552,9 +7552,9 @@
         <v>134</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A135" s="9"/>
-      <c r="B135" s="9"/>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A135" s="12"/>
+      <c r="B135" s="12"/>
       <c r="C135" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C135" ca="1">IF(INDIRECT("B"&amp;I135)=0,INDIRECT("C"&amp;(I135-1)),INDIRECT("B"&amp;I135))</f>
         <v>MadhyaPradesh</v>
@@ -7579,9 +7579,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A136" s="9"/>
-      <c r="B136" s="9"/>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A136" s="12"/>
+      <c r="B136" s="12"/>
       <c r="C136" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C136" ca="1">IF(INDIRECT("B"&amp;I136)=0,INDIRECT("C"&amp;(I136-1)),INDIRECT("B"&amp;I136))</f>
         <v>MadhyaPradesh</v>
@@ -7606,9 +7606,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A137" s="9"/>
-      <c r="B137" s="9"/>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A137" s="12"/>
+      <c r="B137" s="12"/>
       <c r="C137" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C137" ca="1">IF(INDIRECT("B"&amp;I137)=0,INDIRECT("C"&amp;(I137-1)),INDIRECT("B"&amp;I137))</f>
         <v>MadhyaPradesh</v>
@@ -7633,9 +7633,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A138" s="9"/>
-      <c r="B138" s="9"/>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A138" s="12"/>
+      <c r="B138" s="12"/>
       <c r="C138" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C138" ca="1">IF(INDIRECT("B"&amp;I138)=0,INDIRECT("C"&amp;(I138-1)),INDIRECT("B"&amp;I138))</f>
         <v>MadhyaPradesh</v>
@@ -7660,9 +7660,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A139" s="9"/>
-      <c r="B139" s="9"/>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A139" s="12"/>
+      <c r="B139" s="12"/>
       <c r="C139" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C139" ca="1">IF(INDIRECT("B"&amp;I139)=0,INDIRECT("C"&amp;(I139-1)),INDIRECT("B"&amp;I139))</f>
         <v>MadhyaPradesh</v>
@@ -7687,9 +7687,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A140" s="9"/>
-      <c r="B140" s="9"/>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A140" s="12"/>
+      <c r="B140" s="12"/>
       <c r="C140" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C140" ca="1">IF(INDIRECT("B"&amp;I140)=0,INDIRECT("C"&amp;(I140-1)),INDIRECT("B"&amp;I140))</f>
         <v>MadhyaPradesh</v>
@@ -7714,11 +7714,11 @@
         <v>140</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A141" s="9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A141" s="12">
         <v>12</v>
       </c>
-      <c r="B141" s="9" t="s">
+      <c r="B141" s="12" t="s">
         <v>258</v>
       </c>
       <c r="C141" s="2" t="str" cm="1">
@@ -7745,17 +7745,17 @@
         <v>141</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A142" s="9"/>
-      <c r="B142" s="9"/>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A142" s="12"/>
+      <c r="B142" s="12"/>
       <c r="C142" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C142" ca="1">IF(INDIRECT("B"&amp;I142)=0,INDIRECT("C"&amp;(I142-1)),INDIRECT("B"&amp;I142))</f>
         <v>Maharashtra</v>
       </c>
-      <c r="D142" s="9">
+      <c r="D142" s="12">
         <v>78</v>
       </c>
-      <c r="E142" s="9" t="s">
+      <c r="E142" s="12" t="s">
         <v>230</v>
       </c>
       <c r="F142" s="2" t="str" cm="1">
@@ -7772,15 +7772,15 @@
         <v>142</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A143" s="9"/>
-      <c r="B143" s="9"/>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A143" s="12"/>
+      <c r="B143" s="12"/>
       <c r="C143" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C143" ca="1">IF(INDIRECT("B"&amp;I143)=0,INDIRECT("C"&amp;(I143-1)),INDIRECT("B"&amp;I143))</f>
         <v>Maharashtra</v>
       </c>
-      <c r="D143" s="9"/>
-      <c r="E143" s="9"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="12"/>
       <c r="F143" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F143" ca="1">IF(INDIRECT("E"&amp;I143)=0,INDIRECT("F"&amp;(I143-1)),INDIRECT("E"&amp;I143))</f>
         <v>Chandrapur</v>
@@ -7795,9 +7795,9 @@
         <v>143</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A144" s="9"/>
-      <c r="B144" s="9"/>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A144" s="12"/>
+      <c r="B144" s="12"/>
       <c r="C144" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C144" ca="1">IF(INDIRECT("B"&amp;I144)=0,INDIRECT("C"&amp;(I144-1)),INDIRECT("B"&amp;I144))</f>
         <v>Maharashtra</v>
@@ -7822,17 +7822,17 @@
         <v>144</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A145" s="9"/>
-      <c r="B145" s="9"/>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A145" s="12"/>
+      <c r="B145" s="12"/>
       <c r="C145" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C145" ca="1">IF(INDIRECT("B"&amp;I145)=0,INDIRECT("C"&amp;(I145-1)),INDIRECT("B"&amp;I145))</f>
         <v>Maharashtra</v>
       </c>
-      <c r="D145" s="9">
+      <c r="D145" s="12">
         <v>80</v>
       </c>
-      <c r="E145" s="9" t="s">
+      <c r="E145" s="12" t="s">
         <v>243</v>
       </c>
       <c r="F145" s="2" t="str" cm="1">
@@ -7849,15 +7849,15 @@
         <v>145</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A146" s="9"/>
-      <c r="B146" s="9"/>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A146" s="12"/>
+      <c r="B146" s="12"/>
       <c r="C146" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C146" ca="1">IF(INDIRECT("B"&amp;I146)=0,INDIRECT("C"&amp;(I146-1)),INDIRECT("B"&amp;I146))</f>
         <v>Maharashtra</v>
       </c>
-      <c r="D146" s="9"/>
-      <c r="E146" s="9"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="12"/>
       <c r="F146" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F146" ca="1">IF(INDIRECT("E"&amp;I146)=0,INDIRECT("F"&amp;(I146-1)),INDIRECT("E"&amp;I146))</f>
         <v>Mumbai</v>
@@ -7872,15 +7872,15 @@
         <v>146</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A147" s="9"/>
-      <c r="B147" s="9"/>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A147" s="12"/>
+      <c r="B147" s="12"/>
       <c r="C147" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C147" ca="1">IF(INDIRECT("B"&amp;I147)=0,INDIRECT("C"&amp;(I147-1)),INDIRECT("B"&amp;I147))</f>
         <v>Maharashtra</v>
       </c>
-      <c r="D147" s="9"/>
-      <c r="E147" s="9"/>
+      <c r="D147" s="12"/>
+      <c r="E147" s="12"/>
       <c r="F147" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F147" ca="1">IF(INDIRECT("E"&amp;I147)=0,INDIRECT("F"&amp;(I147-1)),INDIRECT("E"&amp;I147))</f>
         <v>Mumbai</v>
@@ -7895,15 +7895,15 @@
         <v>147</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A148" s="9"/>
-      <c r="B148" s="9"/>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A148" s="12"/>
+      <c r="B148" s="12"/>
       <c r="C148" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C148" ca="1">IF(INDIRECT("B"&amp;I148)=0,INDIRECT("C"&amp;(I148-1)),INDIRECT("B"&amp;I148))</f>
         <v>Maharashtra</v>
       </c>
-      <c r="D148" s="9"/>
-      <c r="E148" s="9"/>
+      <c r="D148" s="12"/>
+      <c r="E148" s="12"/>
       <c r="F148" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F148" ca="1">IF(INDIRECT("E"&amp;I148)=0,INDIRECT("F"&amp;(I148-1)),INDIRECT("E"&amp;I148))</f>
         <v>Mumbai</v>
@@ -7918,15 +7918,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A149" s="9"/>
-      <c r="B149" s="9"/>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A149" s="12"/>
+      <c r="B149" s="12"/>
       <c r="C149" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C149" ca="1">IF(INDIRECT("B"&amp;I149)=0,INDIRECT("C"&amp;(I149-1)),INDIRECT("B"&amp;I149))</f>
         <v>Maharashtra</v>
       </c>
-      <c r="D149" s="9"/>
-      <c r="E149" s="9"/>
+      <c r="D149" s="12"/>
+      <c r="E149" s="12"/>
       <c r="F149" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F149" ca="1">IF(INDIRECT("E"&amp;I149)=0,INDIRECT("F"&amp;(I149-1)),INDIRECT("E"&amp;I149))</f>
         <v>Mumbai</v>
@@ -7941,15 +7941,15 @@
         <v>149</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A150" s="9"/>
-      <c r="B150" s="9"/>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A150" s="12"/>
+      <c r="B150" s="12"/>
       <c r="C150" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C150" ca="1">IF(INDIRECT("B"&amp;I150)=0,INDIRECT("C"&amp;(I150-1)),INDIRECT("B"&amp;I150))</f>
         <v>Maharashtra</v>
       </c>
-      <c r="D150" s="9"/>
-      <c r="E150" s="9"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="12"/>
       <c r="F150" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F150" ca="1">IF(INDIRECT("E"&amp;I150)=0,INDIRECT("F"&amp;(I150-1)),INDIRECT("E"&amp;I150))</f>
         <v>Mumbai</v>
@@ -7964,15 +7964,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A151" s="9"/>
-      <c r="B151" s="9"/>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A151" s="12"/>
+      <c r="B151" s="12"/>
       <c r="C151" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C151" ca="1">IF(INDIRECT("B"&amp;I151)=0,INDIRECT("C"&amp;(I151-1)),INDIRECT("B"&amp;I151))</f>
         <v>Maharashtra</v>
       </c>
-      <c r="D151" s="9"/>
-      <c r="E151" s="9"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="12"/>
       <c r="F151" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F151" ca="1">IF(INDIRECT("E"&amp;I151)=0,INDIRECT("F"&amp;(I151-1)),INDIRECT("E"&amp;I151))</f>
         <v>Mumbai</v>
@@ -7987,15 +7987,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A152" s="9"/>
-      <c r="B152" s="9"/>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A152" s="12"/>
+      <c r="B152" s="12"/>
       <c r="C152" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C152" ca="1">IF(INDIRECT("B"&amp;I152)=0,INDIRECT("C"&amp;(I152-1)),INDIRECT("B"&amp;I152))</f>
         <v>Maharashtra</v>
       </c>
-      <c r="D152" s="9"/>
-      <c r="E152" s="9"/>
+      <c r="D152" s="12"/>
+      <c r="E152" s="12"/>
       <c r="F152" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F152" ca="1">IF(INDIRECT("E"&amp;I152)=0,INDIRECT("F"&amp;(I152-1)),INDIRECT("E"&amp;I152))</f>
         <v>Mumbai</v>
@@ -8010,15 +8010,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A153" s="9"/>
-      <c r="B153" s="9"/>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A153" s="12"/>
+      <c r="B153" s="12"/>
       <c r="C153" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C153" ca="1">IF(INDIRECT("B"&amp;I153)=0,INDIRECT("C"&amp;(I153-1)),INDIRECT("B"&amp;I153))</f>
         <v>Maharashtra</v>
       </c>
-      <c r="D153" s="9"/>
-      <c r="E153" s="9"/>
+      <c r="D153" s="12"/>
+      <c r="E153" s="12"/>
       <c r="F153" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F153" ca="1">IF(INDIRECT("E"&amp;I153)=0,INDIRECT("F"&amp;(I153-1)),INDIRECT("E"&amp;I153))</f>
         <v>Mumbai</v>
@@ -8033,15 +8033,15 @@
         <v>153</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A154" s="9"/>
-      <c r="B154" s="9"/>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A154" s="12"/>
+      <c r="B154" s="12"/>
       <c r="C154" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C154" ca="1">IF(INDIRECT("B"&amp;I154)=0,INDIRECT("C"&amp;(I154-1)),INDIRECT("B"&amp;I154))</f>
         <v>Maharashtra</v>
       </c>
-      <c r="D154" s="9"/>
-      <c r="E154" s="9"/>
+      <c r="D154" s="12"/>
+      <c r="E154" s="12"/>
       <c r="F154" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F154" ca="1">IF(INDIRECT("E"&amp;I154)=0,INDIRECT("F"&amp;(I154-1)),INDIRECT("E"&amp;I154))</f>
         <v>Mumbai</v>
@@ -8056,9 +8056,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A155" s="9"/>
-      <c r="B155" s="9"/>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A155" s="12"/>
+      <c r="B155" s="12"/>
       <c r="C155" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C155" ca="1">IF(INDIRECT("B"&amp;I155)=0,INDIRECT("C"&amp;(I155-1)),INDIRECT("B"&amp;I155))</f>
         <v>Maharashtra</v>
@@ -8083,9 +8083,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A156" s="9"/>
-      <c r="B156" s="9"/>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A156" s="12"/>
+      <c r="B156" s="12"/>
       <c r="C156" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C156" ca="1">IF(INDIRECT("B"&amp;I156)=0,INDIRECT("C"&amp;(I156-1)),INDIRECT("B"&amp;I156))</f>
         <v>Maharashtra</v>
@@ -8110,17 +8110,17 @@
         <v>156</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A157" s="9"/>
-      <c r="B157" s="9"/>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A157" s="12"/>
+      <c r="B157" s="12"/>
       <c r="C157" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C157" ca="1">IF(INDIRECT("B"&amp;I157)=0,INDIRECT("C"&amp;(I157-1)),INDIRECT("B"&amp;I157))</f>
         <v>Maharashtra</v>
       </c>
-      <c r="D157" s="9">
+      <c r="D157" s="12">
         <v>83</v>
       </c>
-      <c r="E157" s="9" t="s">
+      <c r="E157" s="12" t="s">
         <v>251</v>
       </c>
       <c r="F157" s="2" t="str" cm="1">
@@ -8137,15 +8137,15 @@
         <v>157</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A158" s="9"/>
-      <c r="B158" s="9"/>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A158" s="12"/>
+      <c r="B158" s="12"/>
       <c r="C158" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C158" ca="1">IF(INDIRECT("B"&amp;I158)=0,INDIRECT("C"&amp;(I158-1)),INDIRECT("B"&amp;I158))</f>
         <v>Maharashtra</v>
       </c>
-      <c r="D158" s="9"/>
-      <c r="E158" s="9"/>
+      <c r="D158" s="12"/>
+      <c r="E158" s="12"/>
       <c r="F158" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F158" ca="1">IF(INDIRECT("E"&amp;I158)=0,INDIRECT("F"&amp;(I158-1)),INDIRECT("E"&amp;I158))</f>
         <v>Navi Mumbai</v>
@@ -8160,15 +8160,15 @@
         <v>158</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A159" s="9"/>
-      <c r="B159" s="9"/>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A159" s="12"/>
+      <c r="B159" s="12"/>
       <c r="C159" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C159" ca="1">IF(INDIRECT("B"&amp;I159)=0,INDIRECT("C"&amp;(I159-1)),INDIRECT("B"&amp;I159))</f>
         <v>Maharashtra</v>
       </c>
-      <c r="D159" s="9"/>
-      <c r="E159" s="9"/>
+      <c r="D159" s="12"/>
+      <c r="E159" s="12"/>
       <c r="F159" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F159" ca="1">IF(INDIRECT("E"&amp;I159)=0,INDIRECT("F"&amp;(I159-1)),INDIRECT("E"&amp;I159))</f>
         <v>Navi Mumbai</v>
@@ -8183,9 +8183,9 @@
         <v>159</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A160" s="9"/>
-      <c r="B160" s="9"/>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A160" s="12"/>
+      <c r="B160" s="12"/>
       <c r="C160" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C160" ca="1">IF(INDIRECT("B"&amp;I160)=0,INDIRECT("C"&amp;(I160-1)),INDIRECT("B"&amp;I160))</f>
         <v>Maharashtra</v>
@@ -8210,9 +8210,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A161" s="9"/>
-      <c r="B161" s="9"/>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A161" s="12"/>
+      <c r="B161" s="12"/>
       <c r="C161" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C161" ca="1">IF(INDIRECT("B"&amp;I161)=0,INDIRECT("C"&amp;(I161-1)),INDIRECT("B"&amp;I161))</f>
         <v>Maharashtra</v>
@@ -8237,9 +8237,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A162" s="9"/>
-      <c r="B162" s="9"/>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A162" s="12"/>
+      <c r="B162" s="12"/>
       <c r="C162" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C162" ca="1">IF(INDIRECT("B"&amp;I162)=0,INDIRECT("C"&amp;(I162-1)),INDIRECT("B"&amp;I162))</f>
         <v>Maharashtra</v>
@@ -8264,7 +8264,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A163" s="2">
         <v>13</v>
       </c>
@@ -8295,7 +8295,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A164" s="2">
         <v>14</v>
       </c>
@@ -8326,11 +8326,11 @@
         <v>164</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A165" s="9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A165" s="12">
         <v>15</v>
       </c>
-      <c r="B165" s="9" t="s">
+      <c r="B165" s="12" t="s">
         <v>269</v>
       </c>
       <c r="C165" s="2" t="str" cm="1">
@@ -8357,9 +8357,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A166" s="9"/>
-      <c r="B166" s="9"/>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A166" s="12"/>
+      <c r="B166" s="12"/>
       <c r="C166" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C166" ca="1">IF(INDIRECT("B"&amp;I166)=0,INDIRECT("C"&amp;(I166-1)),INDIRECT("B"&amp;I166))</f>
         <v>Odisha</v>
@@ -8384,11 +8384,11 @@
         <v>166</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A167" s="9">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A167" s="12">
         <v>16</v>
       </c>
-      <c r="B167" s="9" t="s">
+      <c r="B167" s="12" t="s">
         <v>286</v>
       </c>
       <c r="C167" s="2" t="str" cm="1">
@@ -8415,9 +8415,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A168" s="9"/>
-      <c r="B168" s="9"/>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A168" s="12"/>
+      <c r="B168" s="12"/>
       <c r="C168" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C168" ca="1">IF(INDIRECT("B"&amp;I168)=0,INDIRECT("C"&amp;(I168-1)),INDIRECT("B"&amp;I168))</f>
         <v>Punjab</v>
@@ -8442,9 +8442,9 @@
         <v>168</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A169" s="9"/>
-      <c r="B169" s="9"/>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A169" s="12"/>
+      <c r="B169" s="12"/>
       <c r="C169" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C169" ca="1">IF(INDIRECT("B"&amp;I169)=0,INDIRECT("C"&amp;(I169-1)),INDIRECT("B"&amp;I169))</f>
         <v>Punjab</v>
@@ -8469,9 +8469,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A170" s="9"/>
-      <c r="B170" s="9"/>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A170" s="12"/>
+      <c r="B170" s="12"/>
       <c r="C170" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C170" ca="1">IF(INDIRECT("B"&amp;I170)=0,INDIRECT("C"&amp;(I170-1)),INDIRECT("B"&amp;I170))</f>
         <v>Punjab</v>
@@ -8496,9 +8496,9 @@
         <v>170</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A171" s="9"/>
-      <c r="B171" s="9"/>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A171" s="12"/>
+      <c r="B171" s="12"/>
       <c r="C171" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C171" ca="1">IF(INDIRECT("B"&amp;I171)=0,INDIRECT("C"&amp;(I171-1)),INDIRECT("B"&amp;I171))</f>
         <v>Punjab</v>
@@ -8523,9 +8523,9 @@
         <v>171</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A172" s="9"/>
-      <c r="B172" s="9"/>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A172" s="12"/>
+      <c r="B172" s="12"/>
       <c r="C172" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C172" ca="1">IF(INDIRECT("B"&amp;I172)=0,INDIRECT("C"&amp;(I172-1)),INDIRECT("B"&amp;I172))</f>
         <v>Punjab</v>
@@ -8550,9 +8550,9 @@
         <v>172</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A173" s="9"/>
-      <c r="B173" s="9"/>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A173" s="12"/>
+      <c r="B173" s="12"/>
       <c r="C173" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C173" ca="1">IF(INDIRECT("B"&amp;I173)=0,INDIRECT("C"&amp;(I173-1)),INDIRECT("B"&amp;I173))</f>
         <v>Punjab</v>
@@ -8577,9 +8577,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A174" s="9"/>
-      <c r="B174" s="9"/>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A174" s="12"/>
+      <c r="B174" s="12"/>
       <c r="C174" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C174" ca="1">IF(INDIRECT("B"&amp;I174)=0,INDIRECT("C"&amp;(I174-1)),INDIRECT("B"&amp;I174))</f>
         <v>Punjab</v>
@@ -8604,11 +8604,11 @@
         <v>174</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A175" s="9">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A175" s="12">
         <v>17</v>
       </c>
-      <c r="B175" s="9" t="s">
+      <c r="B175" s="12" t="s">
         <v>305</v>
       </c>
       <c r="C175" s="2" t="str" cm="1">
@@ -8635,9 +8635,9 @@
         <v>175</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A176" s="9"/>
-      <c r="B176" s="9"/>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A176" s="12"/>
+      <c r="B176" s="12"/>
       <c r="C176" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C176" ca="1">IF(INDIRECT("B"&amp;I176)=0,INDIRECT("C"&amp;(I176-1)),INDIRECT("B"&amp;I176))</f>
         <v>Rajasthan</v>
@@ -8662,9 +8662,9 @@
         <v>176</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A177" s="9"/>
-      <c r="B177" s="9"/>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A177" s="12"/>
+      <c r="B177" s="12"/>
       <c r="C177" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C177" ca="1">IF(INDIRECT("B"&amp;I177)=0,INDIRECT("C"&amp;(I177-1)),INDIRECT("B"&amp;I177))</f>
         <v>Rajasthan</v>
@@ -8689,17 +8689,17 @@
         <v>177</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A178" s="9"/>
-      <c r="B178" s="9"/>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A178" s="12"/>
+      <c r="B178" s="12"/>
       <c r="C178" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C178" ca="1">IF(INDIRECT("B"&amp;I178)=0,INDIRECT("C"&amp;(I178-1)),INDIRECT("B"&amp;I178))</f>
         <v>Rajasthan</v>
       </c>
-      <c r="D178" s="9">
+      <c r="D178" s="12">
         <v>102</v>
       </c>
-      <c r="E178" s="9" t="s">
+      <c r="E178" s="12" t="s">
         <v>296</v>
       </c>
       <c r="F178" s="2" t="str" cm="1">
@@ -8716,15 +8716,15 @@
         <v>178</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A179" s="9"/>
-      <c r="B179" s="9"/>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A179" s="12"/>
+      <c r="B179" s="12"/>
       <c r="C179" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C179" ca="1">IF(INDIRECT("B"&amp;I179)=0,INDIRECT("C"&amp;(I179-1)),INDIRECT("B"&amp;I179))</f>
         <v>Rajasthan</v>
       </c>
-      <c r="D179" s="9"/>
-      <c r="E179" s="9"/>
+      <c r="D179" s="12"/>
+      <c r="E179" s="12"/>
       <c r="F179" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F179" ca="1">IF(INDIRECT("E"&amp;I179)=0,INDIRECT("F"&amp;(I179-1)),INDIRECT("E"&amp;I179))</f>
         <v>Jaipur</v>
@@ -8739,15 +8739,15 @@
         <v>179</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A180" s="9"/>
-      <c r="B180" s="9"/>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A180" s="12"/>
+      <c r="B180" s="12"/>
       <c r="C180" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C180" ca="1">IF(INDIRECT("B"&amp;I180)=0,INDIRECT("C"&amp;(I180-1)),INDIRECT("B"&amp;I180))</f>
         <v>Rajasthan</v>
       </c>
-      <c r="D180" s="9"/>
-      <c r="E180" s="9"/>
+      <c r="D180" s="12"/>
+      <c r="E180" s="12"/>
       <c r="F180" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F180" ca="1">IF(INDIRECT("E"&amp;I180)=0,INDIRECT("F"&amp;(I180-1)),INDIRECT("E"&amp;I180))</f>
         <v>Jaipur</v>
@@ -8762,9 +8762,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A181" s="9"/>
-      <c r="B181" s="9"/>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A181" s="12"/>
+      <c r="B181" s="12"/>
       <c r="C181" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C181" ca="1">IF(INDIRECT("B"&amp;I181)=0,INDIRECT("C"&amp;(I181-1)),INDIRECT("B"&amp;I181))</f>
         <v>Rajasthan</v>
@@ -8789,9 +8789,9 @@
         <v>181</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A182" s="9"/>
-      <c r="B182" s="9"/>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A182" s="12"/>
+      <c r="B182" s="12"/>
       <c r="C182" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C182" ca="1">IF(INDIRECT("B"&amp;I182)=0,INDIRECT("C"&amp;(I182-1)),INDIRECT("B"&amp;I182))</f>
         <v>Rajasthan</v>
@@ -8816,9 +8816,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A183" s="9"/>
-      <c r="B183" s="9"/>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A183" s="12"/>
+      <c r="B183" s="12"/>
       <c r="C183" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C183" ca="1">IF(INDIRECT("B"&amp;I183)=0,INDIRECT("C"&amp;(I183-1)),INDIRECT("B"&amp;I183))</f>
         <v>Rajasthan</v>
@@ -8843,9 +8843,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A184" s="9"/>
-      <c r="B184" s="9"/>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A184" s="12"/>
+      <c r="B184" s="12"/>
       <c r="C184" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C184" ca="1">IF(INDIRECT("B"&amp;I184)=0,INDIRECT("C"&amp;(I184-1)),INDIRECT("B"&amp;I184))</f>
         <v>Rajasthan</v>
@@ -8870,21 +8870,21 @@
         <v>184</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A185" s="9">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A185" s="12">
         <v>18</v>
       </c>
-      <c r="B185" s="9" t="s">
+      <c r="B185" s="12" t="s">
         <v>313</v>
       </c>
       <c r="C185" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C185" ca="1">IF(INDIRECT("B"&amp;I185)=0,INDIRECT("C"&amp;(I185-1)),INDIRECT("B"&amp;I185))</f>
         <v>Tamil_Nadu</v>
       </c>
-      <c r="D185" s="9">
+      <c r="D185" s="12">
         <v>107</v>
       </c>
-      <c r="E185" s="9" t="s">
+      <c r="E185" s="12" t="s">
         <v>310</v>
       </c>
       <c r="F185" s="2" t="str" cm="1">
@@ -8901,15 +8901,15 @@
         <v>185</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A186" s="9"/>
-      <c r="B186" s="9"/>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A186" s="12"/>
+      <c r="B186" s="12"/>
       <c r="C186" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C186" ca="1">IF(INDIRECT("B"&amp;I186)=0,INDIRECT("C"&amp;(I186-1)),INDIRECT("B"&amp;I186))</f>
         <v>Tamil_Nadu</v>
       </c>
-      <c r="D186" s="9"/>
-      <c r="E186" s="9"/>
+      <c r="D186" s="12"/>
+      <c r="E186" s="12"/>
       <c r="F186" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F186" ca="1">IF(INDIRECT("E"&amp;I186)=0,INDIRECT("F"&amp;(I186-1)),INDIRECT("E"&amp;I186))</f>
         <v>Chennai</v>
@@ -8924,15 +8924,15 @@
         <v>186</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A187" s="9"/>
-      <c r="B187" s="9"/>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A187" s="12"/>
+      <c r="B187" s="12"/>
       <c r="C187" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C187" ca="1">IF(INDIRECT("B"&amp;I187)=0,INDIRECT("C"&amp;(I187-1)),INDIRECT("B"&amp;I187))</f>
         <v>Tamil_Nadu</v>
       </c>
-      <c r="D187" s="9"/>
-      <c r="E187" s="9"/>
+      <c r="D187" s="12"/>
+      <c r="E187" s="12"/>
       <c r="F187" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F187" ca="1">IF(INDIRECT("E"&amp;I187)=0,INDIRECT("F"&amp;(I187-1)),INDIRECT("E"&amp;I187))</f>
         <v>Chennai</v>
@@ -8947,15 +8947,15 @@
         <v>187</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A188" s="9"/>
-      <c r="B188" s="9"/>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A188" s="12"/>
+      <c r="B188" s="12"/>
       <c r="C188" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C188" ca="1">IF(INDIRECT("B"&amp;I188)=0,INDIRECT("C"&amp;(I188-1)),INDIRECT("B"&amp;I188))</f>
         <v>Tamil_Nadu</v>
       </c>
-      <c r="D188" s="9"/>
-      <c r="E188" s="9"/>
+      <c r="D188" s="12"/>
+      <c r="E188" s="12"/>
       <c r="F188" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F188" ca="1">IF(INDIRECT("E"&amp;I188)=0,INDIRECT("F"&amp;(I188-1)),INDIRECT("E"&amp;I188))</f>
         <v>Chennai</v>
@@ -8970,9 +8970,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A189" s="9"/>
-      <c r="B189" s="9"/>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A189" s="12"/>
+      <c r="B189" s="12"/>
       <c r="C189" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C189" ca="1">IF(INDIRECT("B"&amp;I189)=0,INDIRECT("C"&amp;(I189-1)),INDIRECT("B"&amp;I189))</f>
         <v>Tamil_Nadu</v>
@@ -8997,21 +8997,21 @@
         <v>189</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A190" s="9">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A190" s="12">
         <v>19</v>
       </c>
-      <c r="B190" s="9" t="s">
+      <c r="B190" s="12" t="s">
         <v>321</v>
       </c>
       <c r="C190" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C190" ca="1">IF(INDIRECT("B"&amp;I190)=0,INDIRECT("C"&amp;(I190-1)),INDIRECT("B"&amp;I190))</f>
         <v>Telangana</v>
       </c>
-      <c r="D190" s="9">
+      <c r="D190" s="12">
         <v>109</v>
       </c>
-      <c r="E190" s="9" t="s">
+      <c r="E190" s="12" t="s">
         <v>320</v>
       </c>
       <c r="F190" s="2" t="str" cm="1">
@@ -9028,15 +9028,15 @@
         <v>190</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A191" s="9"/>
-      <c r="B191" s="9"/>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A191" s="12"/>
+      <c r="B191" s="12"/>
       <c r="C191" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C191" ca="1">IF(INDIRECT("B"&amp;I191)=0,INDIRECT("C"&amp;(I191-1)),INDIRECT("B"&amp;I191))</f>
         <v>Telangana</v>
       </c>
-      <c r="D191" s="9"/>
-      <c r="E191" s="9"/>
+      <c r="D191" s="12"/>
+      <c r="E191" s="12"/>
       <c r="F191" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F191" ca="1">IF(INDIRECT("E"&amp;I191)=0,INDIRECT("F"&amp;(I191-1)),INDIRECT("E"&amp;I191))</f>
         <v>Hyderabad</v>
@@ -9051,15 +9051,15 @@
         <v>191</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A192" s="9"/>
-      <c r="B192" s="9"/>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A192" s="12"/>
+      <c r="B192" s="12"/>
       <c r="C192" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C192" ca="1">IF(INDIRECT("B"&amp;I192)=0,INDIRECT("C"&amp;(I192-1)),INDIRECT("B"&amp;I192))</f>
         <v>Telangana</v>
       </c>
-      <c r="D192" s="9"/>
-      <c r="E192" s="9"/>
+      <c r="D192" s="12"/>
+      <c r="E192" s="12"/>
       <c r="F192" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F192" ca="1">IF(INDIRECT("E"&amp;I192)=0,INDIRECT("F"&amp;(I192-1)),INDIRECT("E"&amp;I192))</f>
         <v>Hyderabad</v>
@@ -9074,15 +9074,15 @@
         <v>192</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A193" s="9"/>
-      <c r="B193" s="9"/>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A193" s="12"/>
+      <c r="B193" s="12"/>
       <c r="C193" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C193" ca="1">IF(INDIRECT("B"&amp;I193)=0,INDIRECT("C"&amp;(I193-1)),INDIRECT("B"&amp;I193))</f>
         <v>Telangana</v>
       </c>
-      <c r="D193" s="9"/>
-      <c r="E193" s="9"/>
+      <c r="D193" s="12"/>
+      <c r="E193" s="12"/>
       <c r="F193" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F193" ca="1">IF(INDIRECT("E"&amp;I193)=0,INDIRECT("F"&amp;(I193-1)),INDIRECT("E"&amp;I193))</f>
         <v>Hyderabad</v>
@@ -9097,15 +9097,15 @@
         <v>193</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A194" s="9"/>
-      <c r="B194" s="9"/>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A194" s="12"/>
+      <c r="B194" s="12"/>
       <c r="C194" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C194" ca="1">IF(INDIRECT("B"&amp;I194)=0,INDIRECT("C"&amp;(I194-1)),INDIRECT("B"&amp;I194))</f>
         <v>Telangana</v>
       </c>
-      <c r="D194" s="9"/>
-      <c r="E194" s="9"/>
+      <c r="D194" s="12"/>
+      <c r="E194" s="12"/>
       <c r="F194" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F194" ca="1">IF(INDIRECT("E"&amp;I194)=0,INDIRECT("F"&amp;(I194-1)),INDIRECT("E"&amp;I194))</f>
         <v>Hyderabad</v>
@@ -9120,15 +9120,15 @@
         <v>194</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A195" s="9"/>
-      <c r="B195" s="9"/>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A195" s="12"/>
+      <c r="B195" s="12"/>
       <c r="C195" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C195" ca="1">IF(INDIRECT("B"&amp;I195)=0,INDIRECT("C"&amp;(I195-1)),INDIRECT("B"&amp;I195))</f>
         <v>Telangana</v>
       </c>
-      <c r="D195" s="9"/>
-      <c r="E195" s="9"/>
+      <c r="D195" s="12"/>
+      <c r="E195" s="12"/>
       <c r="F195" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F195" ca="1">IF(INDIRECT("E"&amp;I195)=0,INDIRECT("F"&amp;(I195-1)),INDIRECT("E"&amp;I195))</f>
         <v>Hyderabad</v>
@@ -9143,11 +9143,11 @@
         <v>195</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A196" s="9">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A196" s="12">
         <v>20</v>
       </c>
-      <c r="B196" s="9" t="s">
+      <c r="B196" s="12" t="s">
         <v>362</v>
       </c>
       <c r="C196" s="2" t="str" cm="1">
@@ -9174,9 +9174,9 @@
         <v>196</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A197" s="9"/>
-      <c r="B197" s="9"/>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A197" s="12"/>
+      <c r="B197" s="12"/>
       <c r="C197" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C197" ca="1">IF(INDIRECT("B"&amp;I197)=0,INDIRECT("C"&amp;(I197-1)),INDIRECT("B"&amp;I197))</f>
         <v>Uttar_Pradesh</v>
@@ -9201,9 +9201,9 @@
         <v>197</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A198" s="9"/>
-      <c r="B198" s="9"/>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A198" s="12"/>
+      <c r="B198" s="12"/>
       <c r="C198" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C198" ca="1">IF(INDIRECT("B"&amp;I198)=0,INDIRECT("C"&amp;(I198-1)),INDIRECT("B"&amp;I198))</f>
         <v>Uttar_Pradesh</v>
@@ -9228,17 +9228,17 @@
         <v>198</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A199" s="9"/>
-      <c r="B199" s="9"/>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A199" s="12"/>
+      <c r="B199" s="12"/>
       <c r="C199" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C199" ca="1">IF(INDIRECT("B"&amp;I199)=0,INDIRECT("C"&amp;(I199-1)),INDIRECT("B"&amp;I199))</f>
         <v>Uttar_Pradesh</v>
       </c>
-      <c r="D199" s="9">
+      <c r="D199" s="12">
         <v>113</v>
       </c>
-      <c r="E199" s="9" t="s">
+      <c r="E199" s="12" t="s">
         <v>331</v>
       </c>
       <c r="F199" s="2" t="str" cm="1">
@@ -9255,15 +9255,15 @@
         <v>199</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A200" s="9"/>
-      <c r="B200" s="9"/>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A200" s="12"/>
+      <c r="B200" s="12"/>
       <c r="C200" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C200" ca="1">IF(INDIRECT("B"&amp;I200)=0,INDIRECT("C"&amp;(I200-1)),INDIRECT("B"&amp;I200))</f>
         <v>Uttar_Pradesh</v>
       </c>
-      <c r="D200" s="9"/>
-      <c r="E200" s="9"/>
+      <c r="D200" s="12"/>
+      <c r="E200" s="12"/>
       <c r="F200" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F200" ca="1">IF(INDIRECT("E"&amp;I200)=0,INDIRECT("F"&amp;(I200-1)),INDIRECT("E"&amp;I200))</f>
         <v>Ghaziabad</v>
@@ -9278,15 +9278,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A201" s="9"/>
-      <c r="B201" s="9"/>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A201" s="12"/>
+      <c r="B201" s="12"/>
       <c r="C201" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C201" ca="1">IF(INDIRECT("B"&amp;I201)=0,INDIRECT("C"&amp;(I201-1)),INDIRECT("B"&amp;I201))</f>
         <v>Uttar_Pradesh</v>
       </c>
-      <c r="D201" s="9"/>
-      <c r="E201" s="9"/>
+      <c r="D201" s="12"/>
+      <c r="E201" s="12"/>
       <c r="F201" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F201" ca="1">IF(INDIRECT("E"&amp;I201)=0,INDIRECT("F"&amp;(I201-1)),INDIRECT("E"&amp;I201))</f>
         <v>Ghaziabad</v>
@@ -9301,17 +9301,17 @@
         <v>201</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A202" s="9"/>
-      <c r="B202" s="9"/>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A202" s="12"/>
+      <c r="B202" s="12"/>
       <c r="C202" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C202" ca="1">IF(INDIRECT("B"&amp;I202)=0,INDIRECT("C"&amp;(I202-1)),INDIRECT("B"&amp;I202))</f>
         <v>Uttar_Pradesh</v>
       </c>
-      <c r="D202" s="9">
+      <c r="D202" s="12">
         <v>114</v>
       </c>
-      <c r="E202" s="9" t="s">
+      <c r="E202" s="12" t="s">
         <v>334</v>
       </c>
       <c r="F202" s="2" t="str" cm="1">
@@ -9328,15 +9328,15 @@
         <v>202</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A203" s="9"/>
-      <c r="B203" s="9"/>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A203" s="12"/>
+      <c r="B203" s="12"/>
       <c r="C203" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C203" ca="1">IF(INDIRECT("B"&amp;I203)=0,INDIRECT("C"&amp;(I203-1)),INDIRECT("B"&amp;I203))</f>
         <v>Uttar_Pradesh</v>
       </c>
-      <c r="D203" s="9"/>
-      <c r="E203" s="9"/>
+      <c r="D203" s="12"/>
+      <c r="E203" s="12"/>
       <c r="F203" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F203" ca="1">IF(INDIRECT("E"&amp;I203)=0,INDIRECT("F"&amp;(I203-1)),INDIRECT("E"&amp;I203))</f>
         <v>Greater_Noida</v>
@@ -9351,9 +9351,9 @@
         <v>203</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A204" s="9"/>
-      <c r="B204" s="9"/>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A204" s="12"/>
+      <c r="B204" s="12"/>
       <c r="C204" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C204" ca="1">IF(INDIRECT("B"&amp;I204)=0,INDIRECT("C"&amp;(I204-1)),INDIRECT("B"&amp;I204))</f>
         <v>Uttar_Pradesh</v>
@@ -9378,9 +9378,9 @@
         <v>204</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A205" s="9"/>
-      <c r="B205" s="9"/>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A205" s="12"/>
+      <c r="B205" s="12"/>
       <c r="C205" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C205" ca="1">IF(INDIRECT("B"&amp;I205)=0,INDIRECT("C"&amp;(I205-1)),INDIRECT("B"&amp;I205))</f>
         <v>Uttar_Pradesh</v>
@@ -9405,9 +9405,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A206" s="9"/>
-      <c r="B206" s="9"/>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A206" s="12"/>
+      <c r="B206" s="12"/>
       <c r="C206" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C206" ca="1">IF(INDIRECT("B"&amp;I206)=0,INDIRECT("C"&amp;(I206-1)),INDIRECT("B"&amp;I206))</f>
         <v>Uttar_Pradesh</v>
@@ -9432,17 +9432,17 @@
         <v>206</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A207" s="9"/>
-      <c r="B207" s="9"/>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A207" s="12"/>
+      <c r="B207" s="12"/>
       <c r="C207" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C207" ca="1">IF(INDIRECT("B"&amp;I207)=0,INDIRECT("C"&amp;(I207-1)),INDIRECT("B"&amp;I207))</f>
         <v>Uttar_Pradesh</v>
       </c>
-      <c r="D207" s="9">
+      <c r="D207" s="12">
         <v>118</v>
       </c>
-      <c r="E207" s="9" t="s">
+      <c r="E207" s="12" t="s">
         <v>346</v>
       </c>
       <c r="F207" s="2" t="str" cm="1">
@@ -9459,15 +9459,15 @@
         <v>207</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A208" s="9"/>
-      <c r="B208" s="9"/>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A208" s="12"/>
+      <c r="B208" s="12"/>
       <c r="C208" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C208" ca="1">IF(INDIRECT("B"&amp;I208)=0,INDIRECT("C"&amp;(I208-1)),INDIRECT("B"&amp;I208))</f>
         <v>Uttar_Pradesh</v>
       </c>
-      <c r="D208" s="9"/>
-      <c r="E208" s="9"/>
+      <c r="D208" s="12"/>
+      <c r="E208" s="12"/>
       <c r="F208" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F208" ca="1">IF(INDIRECT("E"&amp;I208)=0,INDIRECT("F"&amp;(I208-1)),INDIRECT("E"&amp;I208))</f>
         <v>Lucknow</v>
@@ -9482,15 +9482,15 @@
         <v>208</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A209" s="9"/>
-      <c r="B209" s="9"/>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A209" s="12"/>
+      <c r="B209" s="12"/>
       <c r="C209" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C209" ca="1">IF(INDIRECT("B"&amp;I209)=0,INDIRECT("C"&amp;(I209-1)),INDIRECT("B"&amp;I209))</f>
         <v>Uttar_Pradesh</v>
       </c>
-      <c r="D209" s="9"/>
-      <c r="E209" s="9"/>
+      <c r="D209" s="12"/>
+      <c r="E209" s="12"/>
       <c r="F209" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F209" ca="1">IF(INDIRECT("E"&amp;I209)=0,INDIRECT("F"&amp;(I209-1)),INDIRECT("E"&amp;I209))</f>
         <v>Lucknow</v>
@@ -9505,15 +9505,15 @@
         <v>209</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A210" s="9"/>
-      <c r="B210" s="9"/>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A210" s="12"/>
+      <c r="B210" s="12"/>
       <c r="C210" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C210" ca="1">IF(INDIRECT("B"&amp;I210)=0,INDIRECT("C"&amp;(I210-1)),INDIRECT("B"&amp;I210))</f>
         <v>Uttar_Pradesh</v>
       </c>
-      <c r="D210" s="9"/>
-      <c r="E210" s="9"/>
+      <c r="D210" s="12"/>
+      <c r="E210" s="12"/>
       <c r="F210" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F210" ca="1">IF(INDIRECT("E"&amp;I210)=0,INDIRECT("F"&amp;(I210-1)),INDIRECT("E"&amp;I210))</f>
         <v>Lucknow</v>
@@ -9528,15 +9528,15 @@
         <v>210</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A211" s="9"/>
-      <c r="B211" s="9"/>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A211" s="12"/>
+      <c r="B211" s="12"/>
       <c r="C211" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C211" ca="1">IF(INDIRECT("B"&amp;I211)=0,INDIRECT("C"&amp;(I211-1)),INDIRECT("B"&amp;I211))</f>
         <v>Uttar_Pradesh</v>
       </c>
-      <c r="D211" s="9"/>
-      <c r="E211" s="9"/>
+      <c r="D211" s="12"/>
+      <c r="E211" s="12"/>
       <c r="F211" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F211" ca="1">IF(INDIRECT("E"&amp;I211)=0,INDIRECT("F"&amp;(I211-1)),INDIRECT("E"&amp;I211))</f>
         <v>Lucknow</v>
@@ -9551,17 +9551,17 @@
         <v>211</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A212" s="9"/>
-      <c r="B212" s="9"/>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A212" s="12"/>
+      <c r="B212" s="12"/>
       <c r="C212" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C212" ca="1">IF(INDIRECT("B"&amp;I212)=0,INDIRECT("C"&amp;(I212-1)),INDIRECT("B"&amp;I212))</f>
         <v>Uttar_Pradesh</v>
       </c>
-      <c r="D212" s="9">
+      <c r="D212" s="12">
         <v>119</v>
       </c>
-      <c r="E212" s="9" t="s">
+      <c r="E212" s="12" t="s">
         <v>350</v>
       </c>
       <c r="F212" s="2" t="str" cm="1">
@@ -9578,15 +9578,15 @@
         <v>212</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A213" s="9"/>
-      <c r="B213" s="9"/>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A213" s="12"/>
+      <c r="B213" s="12"/>
       <c r="C213" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C213" ca="1">IF(INDIRECT("B"&amp;I213)=0,INDIRECT("C"&amp;(I213-1)),INDIRECT("B"&amp;I213))</f>
         <v>Uttar_Pradesh</v>
       </c>
-      <c r="D213" s="9"/>
-      <c r="E213" s="9"/>
+      <c r="D213" s="12"/>
+      <c r="E213" s="12"/>
       <c r="F213" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F213" ca="1">IF(INDIRECT("E"&amp;I213)=0,INDIRECT("F"&amp;(I213-1)),INDIRECT("E"&amp;I213))</f>
         <v>Meerut</v>
@@ -9601,15 +9601,15 @@
         <v>213</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A214" s="9"/>
-      <c r="B214" s="9"/>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A214" s="12"/>
+      <c r="B214" s="12"/>
       <c r="C214" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C214" ca="1">IF(INDIRECT("B"&amp;I214)=0,INDIRECT("C"&amp;(I214-1)),INDIRECT("B"&amp;I214))</f>
         <v>Uttar_Pradesh</v>
       </c>
-      <c r="D214" s="9"/>
-      <c r="E214" s="9"/>
+      <c r="D214" s="12"/>
+      <c r="E214" s="12"/>
       <c r="F214" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F214" ca="1">IF(INDIRECT("E"&amp;I214)=0,INDIRECT("F"&amp;(I214-1)),INDIRECT("E"&amp;I214))</f>
         <v>Meerut</v>
@@ -9624,9 +9624,9 @@
         <v>214</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A215" s="9"/>
-      <c r="B215" s="9"/>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A215" s="12"/>
+      <c r="B215" s="12"/>
       <c r="C215" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C215" ca="1">IF(INDIRECT("B"&amp;I215)=0,INDIRECT("C"&amp;(I215-1)),INDIRECT("B"&amp;I215))</f>
         <v>Uttar_Pradesh</v>
@@ -9651,9 +9651,9 @@
         <v>215</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A216" s="9"/>
-      <c r="B216" s="9"/>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A216" s="12"/>
+      <c r="B216" s="12"/>
       <c r="C216" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C216" ca="1">IF(INDIRECT("B"&amp;I216)=0,INDIRECT("C"&amp;(I216-1)),INDIRECT("B"&amp;I216))</f>
         <v>Uttar_Pradesh</v>
@@ -9678,17 +9678,17 @@
         <v>216</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A217" s="9"/>
-      <c r="B217" s="9"/>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A217" s="12"/>
+      <c r="B217" s="12"/>
       <c r="C217" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C217" ca="1">IF(INDIRECT("B"&amp;I217)=0,INDIRECT("C"&amp;(I217-1)),INDIRECT("B"&amp;I217))</f>
         <v>Uttar_Pradesh</v>
       </c>
-      <c r="D217" s="9">
+      <c r="D217" s="12">
         <v>122</v>
       </c>
-      <c r="E217" s="9" t="s">
+      <c r="E217" s="12" t="s">
         <v>359</v>
       </c>
       <c r="F217" s="2" t="str" cm="1">
@@ -9705,15 +9705,15 @@
         <v>217</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A218" s="9"/>
-      <c r="B218" s="9"/>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A218" s="12"/>
+      <c r="B218" s="12"/>
       <c r="C218" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C218" ca="1">IF(INDIRECT("B"&amp;I218)=0,INDIRECT("C"&amp;(I218-1)),INDIRECT("B"&amp;I218))</f>
         <v>Uttar_Pradesh</v>
       </c>
-      <c r="D218" s="9"/>
-      <c r="E218" s="9"/>
+      <c r="D218" s="12"/>
+      <c r="E218" s="12"/>
       <c r="F218" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F218" ca="1">IF(INDIRECT("E"&amp;I218)=0,INDIRECT("F"&amp;(I218-1)),INDIRECT("E"&amp;I218))</f>
         <v>Noida</v>
@@ -9728,15 +9728,15 @@
         <v>218</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A219" s="9"/>
-      <c r="B219" s="9"/>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A219" s="12"/>
+      <c r="B219" s="12"/>
       <c r="C219" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C219" ca="1">IF(INDIRECT("B"&amp;I219)=0,INDIRECT("C"&amp;(I219-1)),INDIRECT("B"&amp;I219))</f>
         <v>Uttar_Pradesh</v>
       </c>
-      <c r="D219" s="9"/>
-      <c r="E219" s="9"/>
+      <c r="D219" s="12"/>
+      <c r="E219" s="12"/>
       <c r="F219" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F219" ca="1">IF(INDIRECT("E"&amp;I219)=0,INDIRECT("F"&amp;(I219-1)),INDIRECT("E"&amp;I219))</f>
         <v>Noida</v>
@@ -9751,15 +9751,15 @@
         <v>219</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A220" s="9"/>
-      <c r="B220" s="9"/>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A220" s="12"/>
+      <c r="B220" s="12"/>
       <c r="C220" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C220" ca="1">IF(INDIRECT("B"&amp;I220)=0,INDIRECT("C"&amp;(I220-1)),INDIRECT("B"&amp;I220))</f>
         <v>Uttar_Pradesh</v>
       </c>
-      <c r="D220" s="9"/>
-      <c r="E220" s="9"/>
+      <c r="D220" s="12"/>
+      <c r="E220" s="12"/>
       <c r="F220" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F220" ca="1">IF(INDIRECT("E"&amp;I220)=0,INDIRECT("F"&amp;(I220-1)),INDIRECT("E"&amp;I220))</f>
         <v>Noida</v>
@@ -9774,9 +9774,9 @@
         <v>220</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A221" s="9"/>
-      <c r="B221" s="9"/>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A221" s="12"/>
+      <c r="B221" s="12"/>
       <c r="C221" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C221" ca="1">IF(INDIRECT("B"&amp;I221)=0,INDIRECT("C"&amp;(I221-1)),INDIRECT("B"&amp;I221))</f>
         <v>Uttar_Pradesh</v>
@@ -9801,11 +9801,11 @@
         <v>221</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A222" s="9">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A222" s="12">
         <v>21</v>
       </c>
-      <c r="B222" s="9" t="s">
+      <c r="B222" s="12" t="s">
         <v>383</v>
       </c>
       <c r="C222" s="2" t="str" cm="1">
@@ -9832,9 +9832,9 @@
         <v>222</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A223" s="9"/>
-      <c r="B223" s="9"/>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A223" s="12"/>
+      <c r="B223" s="12"/>
       <c r="C223" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C223" ca="1">IF(INDIRECT("B"&amp;I223)=0,INDIRECT("C"&amp;(I223-1)),INDIRECT("B"&amp;I223))</f>
         <v>West_Bengal</v>
@@ -9859,9 +9859,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A224" s="9"/>
-      <c r="B224" s="9"/>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A224" s="12"/>
+      <c r="B224" s="12"/>
       <c r="C224" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C224" ca="1">IF(INDIRECT("B"&amp;I224)=0,INDIRECT("C"&amp;(I224-1)),INDIRECT("B"&amp;I224))</f>
         <v>West_Bengal</v>
@@ -9886,17 +9886,17 @@
         <v>224</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A225" s="9"/>
-      <c r="B225" s="9"/>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A225" s="12"/>
+      <c r="B225" s="12"/>
       <c r="C225" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C225" ca="1">IF(INDIRECT("B"&amp;I225)=0,INDIRECT("C"&amp;(I225-1)),INDIRECT("B"&amp;I225))</f>
         <v>West_Bengal</v>
       </c>
-      <c r="D225" s="9">
+      <c r="D225" s="12">
         <v>127</v>
       </c>
-      <c r="E225" s="9" t="s">
+      <c r="E225" s="12" t="s">
         <v>372</v>
       </c>
       <c r="F225" s="2" t="str" cm="1">
@@ -9913,15 +9913,15 @@
         <v>225</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A226" s="9"/>
-      <c r="B226" s="9"/>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A226" s="12"/>
+      <c r="B226" s="12"/>
       <c r="C226" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C226" ca="1">IF(INDIRECT("B"&amp;I226)=0,INDIRECT("C"&amp;(I226-1)),INDIRECT("B"&amp;I226))</f>
         <v>West_Bengal</v>
       </c>
-      <c r="D226" s="9"/>
-      <c r="E226" s="9"/>
+      <c r="D226" s="12"/>
+      <c r="E226" s="12"/>
       <c r="F226" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F226" ca="1">IF(INDIRECT("E"&amp;I226)=0,INDIRECT("F"&amp;(I226-1)),INDIRECT("E"&amp;I226))</f>
         <v>Howrah</v>
@@ -9936,15 +9936,15 @@
         <v>226</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A227" s="9"/>
-      <c r="B227" s="9"/>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A227" s="12"/>
+      <c r="B227" s="12"/>
       <c r="C227" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C227" ca="1">IF(INDIRECT("B"&amp;I227)=0,INDIRECT("C"&amp;(I227-1)),INDIRECT("B"&amp;I227))</f>
         <v>West_Bengal</v>
       </c>
-      <c r="D227" s="9"/>
-      <c r="E227" s="9"/>
+      <c r="D227" s="12"/>
+      <c r="E227" s="12"/>
       <c r="F227" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F227" ca="1">IF(INDIRECT("E"&amp;I227)=0,INDIRECT("F"&amp;(I227-1)),INDIRECT("E"&amp;I227))</f>
         <v>Howrah</v>
@@ -9959,17 +9959,17 @@
         <v>227</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A228" s="9"/>
-      <c r="B228" s="9"/>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A228" s="12"/>
+      <c r="B228" s="12"/>
       <c r="C228" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C228" ca="1">IF(INDIRECT("B"&amp;I228)=0,INDIRECT("C"&amp;(I228-1)),INDIRECT("B"&amp;I228))</f>
         <v>West_Bengal</v>
       </c>
-      <c r="D228" s="9">
+      <c r="D228" s="12">
         <v>128</v>
       </c>
-      <c r="E228" s="9" t="s">
+      <c r="E228" s="12" t="s">
         <v>380</v>
       </c>
       <c r="F228" s="2" t="str" cm="1">
@@ -9986,15 +9986,15 @@
         <v>228</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A229" s="9"/>
-      <c r="B229" s="9"/>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A229" s="12"/>
+      <c r="B229" s="12"/>
       <c r="C229" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C229" ca="1">IF(INDIRECT("B"&amp;I229)=0,INDIRECT("C"&amp;(I229-1)),INDIRECT("B"&amp;I229))</f>
         <v>West_Bengal</v>
       </c>
-      <c r="D229" s="9"/>
-      <c r="E229" s="9"/>
+      <c r="D229" s="12"/>
+      <c r="E229" s="12"/>
       <c r="F229" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F229" ca="1">IF(INDIRECT("E"&amp;I229)=0,INDIRECT("F"&amp;(I229-1)),INDIRECT("E"&amp;I229))</f>
         <v>Kolkata</v>
@@ -10009,15 +10009,15 @@
         <v>229</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A230" s="9"/>
-      <c r="B230" s="9"/>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A230" s="12"/>
+      <c r="B230" s="12"/>
       <c r="C230" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C230" ca="1">IF(INDIRECT("B"&amp;I230)=0,INDIRECT("C"&amp;(I230-1)),INDIRECT("B"&amp;I230))</f>
         <v>West_Bengal</v>
       </c>
-      <c r="D230" s="9"/>
-      <c r="E230" s="9"/>
+      <c r="D230" s="12"/>
+      <c r="E230" s="12"/>
       <c r="F230" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F230" ca="1">IF(INDIRECT("E"&amp;I230)=0,INDIRECT("F"&amp;(I230-1)),INDIRECT("E"&amp;I230))</f>
         <v>Kolkata</v>
@@ -10032,15 +10032,15 @@
         <v>230</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A231" s="9"/>
-      <c r="B231" s="9"/>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A231" s="12"/>
+      <c r="B231" s="12"/>
       <c r="C231" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C231" ca="1">IF(INDIRECT("B"&amp;I231)=0,INDIRECT("C"&amp;(I231-1)),INDIRECT("B"&amp;I231))</f>
         <v>West_Bengal</v>
       </c>
-      <c r="D231" s="9"/>
-      <c r="E231" s="9"/>
+      <c r="D231" s="12"/>
+      <c r="E231" s="12"/>
       <c r="F231" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F231" ca="1">IF(INDIRECT("E"&amp;I231)=0,INDIRECT("F"&amp;(I231-1)),INDIRECT("E"&amp;I231))</f>
         <v>Kolkata</v>
@@ -10055,15 +10055,15 @@
         <v>231</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A232" s="9"/>
-      <c r="B232" s="9"/>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A232" s="12"/>
+      <c r="B232" s="12"/>
       <c r="C232" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C232" ca="1">IF(INDIRECT("B"&amp;I232)=0,INDIRECT("C"&amp;(I232-1)),INDIRECT("B"&amp;I232))</f>
         <v>West_Bengal</v>
       </c>
-      <c r="D232" s="9"/>
-      <c r="E232" s="9"/>
+      <c r="D232" s="12"/>
+      <c r="E232" s="12"/>
       <c r="F232" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F232" ca="1">IF(INDIRECT("E"&amp;I232)=0,INDIRECT("F"&amp;(I232-1)),INDIRECT("E"&amp;I232))</f>
         <v>Kolkata</v>
@@ -10078,15 +10078,15 @@
         <v>232</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A233" s="9"/>
-      <c r="B233" s="9"/>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A233" s="12"/>
+      <c r="B233" s="12"/>
       <c r="C233" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C233" ca="1">IF(INDIRECT("B"&amp;I233)=0,INDIRECT("C"&amp;(I233-1)),INDIRECT("B"&amp;I233))</f>
         <v>West_Bengal</v>
       </c>
-      <c r="D233" s="9"/>
-      <c r="E233" s="9"/>
+      <c r="D233" s="12"/>
+      <c r="E233" s="12"/>
       <c r="F233" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F233" ca="1">IF(INDIRECT("E"&amp;I233)=0,INDIRECT("F"&amp;(I233-1)),INDIRECT("E"&amp;I233))</f>
         <v>Kolkata</v>
@@ -10101,15 +10101,15 @@
         <v>233</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A234" s="9"/>
-      <c r="B234" s="9"/>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A234" s="12"/>
+      <c r="B234" s="12"/>
       <c r="C234" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C234" ca="1">IF(INDIRECT("B"&amp;I234)=0,INDIRECT("C"&amp;(I234-1)),INDIRECT("B"&amp;I234))</f>
         <v>West_Bengal</v>
       </c>
-      <c r="D234" s="9"/>
-      <c r="E234" s="9"/>
+      <c r="D234" s="12"/>
+      <c r="E234" s="12"/>
       <c r="F234" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F234" ca="1">IF(INDIRECT("E"&amp;I234)=0,INDIRECT("F"&amp;(I234-1)),INDIRECT("E"&amp;I234))</f>
         <v>Kolkata</v>
@@ -10124,9 +10124,9 @@
         <v>234</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A235" s="9"/>
-      <c r="B235" s="9"/>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A235" s="12"/>
+      <c r="B235" s="12"/>
       <c r="C235" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="C235" ca="1">IF(INDIRECT("B"&amp;I235)=0,INDIRECT("C"&amp;(I235-1)),INDIRECT("B"&amp;I235))</f>
         <v>West_Bengal</v>
@@ -10153,69 +10153,6 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D14:D20"/>
-    <mergeCell ref="E14:E20"/>
-    <mergeCell ref="A10:A20"/>
-    <mergeCell ref="B10:B20"/>
-    <mergeCell ref="D22:D59"/>
-    <mergeCell ref="E22:E59"/>
-    <mergeCell ref="A22:A59"/>
-    <mergeCell ref="B22:B59"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="B60:B65"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="E72:E75"/>
-    <mergeCell ref="D77:D80"/>
-    <mergeCell ref="E77:E80"/>
-    <mergeCell ref="A66:A95"/>
-    <mergeCell ref="B66:B95"/>
-    <mergeCell ref="D98:D107"/>
-    <mergeCell ref="E98:E107"/>
-    <mergeCell ref="A97:A116"/>
-    <mergeCell ref="B97:B116"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="A117:A124"/>
-    <mergeCell ref="B117:B124"/>
-    <mergeCell ref="D128:D129"/>
-    <mergeCell ref="E128:E129"/>
-    <mergeCell ref="A125:A140"/>
-    <mergeCell ref="B125:B140"/>
-    <mergeCell ref="D142:D143"/>
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="D145:D154"/>
-    <mergeCell ref="E145:E154"/>
-    <mergeCell ref="D157:D159"/>
-    <mergeCell ref="E157:E159"/>
-    <mergeCell ref="A141:A162"/>
-    <mergeCell ref="B141:B162"/>
-    <mergeCell ref="A165:A166"/>
-    <mergeCell ref="B165:B166"/>
-    <mergeCell ref="A167:A174"/>
-    <mergeCell ref="B167:B174"/>
-    <mergeCell ref="D178:D180"/>
-    <mergeCell ref="E178:E180"/>
-    <mergeCell ref="A175:A184"/>
-    <mergeCell ref="B175:B184"/>
-    <mergeCell ref="D185:D188"/>
-    <mergeCell ref="E185:E188"/>
-    <mergeCell ref="A185:A189"/>
-    <mergeCell ref="B185:B189"/>
-    <mergeCell ref="D190:D195"/>
-    <mergeCell ref="E190:E195"/>
-    <mergeCell ref="A190:A195"/>
-    <mergeCell ref="B190:B195"/>
-    <mergeCell ref="D199:D201"/>
-    <mergeCell ref="E199:E201"/>
     <mergeCell ref="D228:D234"/>
     <mergeCell ref="E228:E234"/>
     <mergeCell ref="A222:A235"/>
@@ -10232,6 +10169,69 @@
     <mergeCell ref="E207:E211"/>
     <mergeCell ref="D212:D214"/>
     <mergeCell ref="E212:E214"/>
+    <mergeCell ref="D190:D195"/>
+    <mergeCell ref="E190:E195"/>
+    <mergeCell ref="A190:A195"/>
+    <mergeCell ref="B190:B195"/>
+    <mergeCell ref="D199:D201"/>
+    <mergeCell ref="E199:E201"/>
+    <mergeCell ref="E178:E180"/>
+    <mergeCell ref="A175:A184"/>
+    <mergeCell ref="B175:B184"/>
+    <mergeCell ref="D185:D188"/>
+    <mergeCell ref="E185:E188"/>
+    <mergeCell ref="A185:A189"/>
+    <mergeCell ref="B185:B189"/>
+    <mergeCell ref="A165:A166"/>
+    <mergeCell ref="B165:B166"/>
+    <mergeCell ref="A167:A174"/>
+    <mergeCell ref="B167:B174"/>
+    <mergeCell ref="D178:D180"/>
+    <mergeCell ref="D145:D154"/>
+    <mergeCell ref="E145:E154"/>
+    <mergeCell ref="D157:D159"/>
+    <mergeCell ref="E157:E159"/>
+    <mergeCell ref="A141:A162"/>
+    <mergeCell ref="B141:B162"/>
+    <mergeCell ref="D128:D129"/>
+    <mergeCell ref="E128:E129"/>
+    <mergeCell ref="A125:A140"/>
+    <mergeCell ref="B125:B140"/>
+    <mergeCell ref="D142:D143"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="D98:D107"/>
+    <mergeCell ref="E98:E107"/>
+    <mergeCell ref="A97:A116"/>
+    <mergeCell ref="B97:B116"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="A117:A124"/>
+    <mergeCell ref="B117:B124"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="E72:E75"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="E77:E80"/>
+    <mergeCell ref="A66:A95"/>
+    <mergeCell ref="B66:B95"/>
+    <mergeCell ref="D22:D59"/>
+    <mergeCell ref="E22:E59"/>
+    <mergeCell ref="A22:A59"/>
+    <mergeCell ref="B22:B59"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="B60:B65"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D14:D20"/>
+    <mergeCell ref="E14:E20"/>
+    <mergeCell ref="A10:A20"/>
+    <mergeCell ref="B10:B20"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10245,13 +10245,13 @@
       <selection activeCell="A132" sqref="A4:A132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>385</v>
       </c>
@@ -10259,7 +10259,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>322</v>
       </c>
@@ -10267,7 +10267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>75</v>
       </c>
@@ -10275,7 +10275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>262</v>
       </c>
@@ -10283,7 +10283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>287</v>
       </c>
@@ -10291,7 +10291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>289</v>
       </c>
@@ -10299,7 +10299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
@@ -10307,7 +10307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>88</v>
       </c>
@@ -10315,7 +10315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
         <v>270</v>
       </c>
@@ -10323,7 +10323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
         <v>77</v>
       </c>
@@ -10331,7 +10331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
         <v>363</v>
       </c>
@@ -10339,7 +10339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>226</v>
       </c>
@@ -10347,7 +10347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
         <v>146</v>
       </c>
@@ -10355,7 +10355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
         <v>324</v>
       </c>
@@ -10363,7 +10363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="7" t="s">
         <v>90</v>
       </c>
@@ -10371,7 +10371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
         <v>92</v>
       </c>
@@ -10379,7 +10379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="7" t="s">
         <v>158</v>
       </c>
@@ -10387,7 +10387,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="7" t="s">
         <v>272</v>
       </c>
@@ -10395,7 +10395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="7" t="s">
         <v>291</v>
       </c>
@@ -10403,7 +10403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="7" t="s">
         <v>94</v>
       </c>
@@ -10411,7 +10411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="7" t="s">
         <v>194</v>
       </c>
@@ -10419,7 +10419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="7" t="s">
         <v>265</v>
       </c>
@@ -10427,7 +10427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="7" t="s">
         <v>326</v>
       </c>
@@ -10435,7 +10435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="7" t="s">
         <v>159</v>
       </c>
@@ -10443,7 +10443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="7" t="s">
         <v>34</v>
       </c>
@@ -10451,7 +10451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="7" t="s">
         <v>230</v>
       </c>
@@ -10459,7 +10459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="7" t="s">
         <v>96</v>
       </c>
@@ -10467,7 +10467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="7" t="s">
         <v>310</v>
       </c>
@@ -10475,7 +10475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="7" t="s">
         <v>161</v>
       </c>
@@ -10483,7 +10483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="7" t="s">
         <v>163</v>
       </c>
@@ -10491,7 +10491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="7" t="s">
         <v>311</v>
       </c>
@@ -10499,7 +10499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="7" t="s">
         <v>196</v>
       </c>
@@ -10507,7 +10507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="7" t="s">
         <v>74</v>
       </c>
@@ -10515,7 +10515,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="7" t="s">
         <v>198</v>
       </c>
@@ -10523,7 +10523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="7" t="s">
         <v>98</v>
       </c>
@@ -10531,7 +10531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="7" t="s">
         <v>365</v>
       </c>
@@ -10539,7 +10539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="7" t="s">
         <v>178</v>
       </c>
@@ -10547,7 +10547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="7" t="s">
         <v>180</v>
       </c>
@@ -10555,7 +10555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="7" t="s">
         <v>104</v>
       </c>
@@ -10563,7 +10563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" s="7" t="s">
         <v>105</v>
       </c>
@@ -10571,7 +10571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" s="7" t="s">
         <v>79</v>
       </c>
@@ -10579,7 +10579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" s="7" t="s">
         <v>21</v>
       </c>
@@ -10587,7 +10587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="7" t="s">
         <v>331</v>
       </c>
@@ -10595,7 +10595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" s="7" t="s">
         <v>334</v>
       </c>
@@ -10603,7 +10603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" s="7" t="s">
         <v>111</v>
       </c>
@@ -10611,7 +10611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" s="7" t="s">
         <v>16</v>
       </c>
@@ -10619,7 +10619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" s="7" t="s">
         <v>202</v>
       </c>
@@ -10627,7 +10627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" s="7" t="s">
         <v>22</v>
       </c>
@@ -10635,7 +10635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" s="7" t="s">
         <v>367</v>
       </c>
@@ -10643,7 +10643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" s="7" t="s">
         <v>335</v>
       </c>
@@ -10651,7 +10651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" s="7" t="s">
         <v>112</v>
       </c>
@@ -10659,7 +10659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54" s="7" t="s">
         <v>372</v>
       </c>
@@ -10667,7 +10667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" s="7" t="s">
         <v>165</v>
       </c>
@@ -10675,7 +10675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" s="7" t="s">
         <v>320</v>
       </c>
@@ -10683,7 +10683,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" s="7" t="s">
         <v>203</v>
       </c>
@@ -10691,7 +10691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" s="7" t="s">
         <v>205</v>
       </c>
@@ -10699,7 +10699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" s="7" t="s">
         <v>296</v>
       </c>
@@ -10707,7 +10707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60" s="7" t="s">
         <v>274</v>
       </c>
@@ -10715,7 +10715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61" s="7" t="s">
         <v>114</v>
       </c>
@@ -10723,7 +10723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62" s="7" t="s">
         <v>297</v>
       </c>
@@ -10731,7 +10731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63" s="7" t="s">
         <v>143</v>
       </c>
@@ -10739,7 +10739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64" s="7" t="s">
         <v>116</v>
       </c>
@@ -10747,7 +10747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65" s="7" t="s">
         <v>167</v>
       </c>
@@ -10755,7 +10755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66" s="7" t="s">
         <v>231</v>
       </c>
@@ -10763,7 +10763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67" s="7" t="s">
         <v>182</v>
       </c>
@@ -10771,7 +10771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68" s="7" t="s">
         <v>337</v>
       </c>
@@ -10779,7 +10779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69" s="7" t="s">
         <v>118</v>
       </c>
@@ -10787,7 +10787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70" s="7" t="s">
         <v>207</v>
       </c>
@@ -10795,7 +10795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71" s="7" t="s">
         <v>276</v>
       </c>
@@ -10803,7 +10803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72" s="7" t="s">
         <v>184</v>
       </c>
@@ -10811,7 +10811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73" s="7" t="s">
         <v>380</v>
       </c>
@@ -10819,7 +10819,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74" s="7" t="s">
         <v>186</v>
       </c>
@@ -10827,7 +10827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75" s="7" t="s">
         <v>299</v>
       </c>
@@ -10835,7 +10835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76" s="7" t="s">
         <v>188</v>
       </c>
@@ -10843,7 +10843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77" s="7" t="s">
         <v>120</v>
       </c>
@@ -10851,7 +10851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78" s="7" t="s">
         <v>339</v>
       </c>
@@ -10859,7 +10859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79" s="7" t="s">
         <v>346</v>
       </c>
@@ -10867,7 +10867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80" s="7" t="s">
         <v>278</v>
       </c>
@@ -10875,7 +10875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81" s="7" t="s">
         <v>209</v>
       </c>
@@ -10883,7 +10883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82" s="7" t="s">
         <v>211</v>
       </c>
@@ -10891,7 +10891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83" s="7" t="s">
         <v>280</v>
       </c>
@@ -10899,7 +10899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84" s="7" t="s">
         <v>122</v>
       </c>
@@ -10907,7 +10907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85" s="7" t="s">
         <v>124</v>
       </c>
@@ -10915,7 +10915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86" s="7" t="s">
         <v>350</v>
       </c>
@@ -10923,7 +10923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87" s="7" t="s">
         <v>243</v>
       </c>
@@ -10931,7 +10931,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88" s="7" t="s">
         <v>351</v>
       </c>
@@ -10939,7 +10939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89" s="7" t="s">
         <v>353</v>
       </c>
@@ -10947,7 +10947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90" s="7" t="s">
         <v>24</v>
       </c>
@@ -10955,7 +10955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91" s="7" t="s">
         <v>169</v>
       </c>
@@ -10963,7 +10963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92" s="7" t="s">
         <v>244</v>
       </c>
@@ -10971,7 +10971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93" s="7" t="s">
         <v>81</v>
       </c>
@@ -10979,7 +10979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94" s="7" t="s">
         <v>126</v>
       </c>
@@ -10987,7 +10987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95" s="7" t="s">
         <v>246</v>
       </c>
@@ -10995,7 +10995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96" s="7" t="s">
         <v>251</v>
       </c>
@@ -11003,7 +11003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97" s="7" t="s">
         <v>359</v>
       </c>
@@ -11011,7 +11011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98" s="7" t="s">
         <v>301</v>
       </c>
@@ -11019,7 +11019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99" s="7" t="s">
         <v>128</v>
       </c>
@@ -11027,7 +11027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A100" s="7" t="s">
         <v>130</v>
       </c>
@@ -11035,7 +11035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A101" s="7" t="s">
         <v>132</v>
       </c>
@@ -11043,7 +11043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A102" s="7" t="s">
         <v>282</v>
       </c>
@@ -11051,7 +11051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A103" s="7" t="s">
         <v>32</v>
       </c>
@@ -11059,7 +11059,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A104" s="7" t="s">
         <v>213</v>
       </c>
@@ -11067,7 +11067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A105" s="7" t="s">
         <v>252</v>
       </c>
@@ -11075,7 +11075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A106" s="7" t="s">
         <v>7</v>
       </c>
@@ -11083,7 +11083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A107" s="7" t="s">
         <v>171</v>
       </c>
@@ -11091,7 +11091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A108" s="7" t="s">
         <v>215</v>
       </c>
@@ -11099,7 +11099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A109" s="7" t="s">
         <v>134</v>
       </c>
@@ -11107,7 +11107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A110" s="7" t="s">
         <v>284</v>
       </c>
@@ -11115,7 +11115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A111" s="7" t="s">
         <v>217</v>
       </c>
@@ -11123,7 +11123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A112" s="7" t="s">
         <v>219</v>
       </c>
@@ -11131,7 +11131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A113" s="7" t="s">
         <v>259</v>
       </c>
@@ -11139,7 +11139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A114" s="7" t="s">
         <v>381</v>
       </c>
@@ -11147,7 +11147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A115" s="7" t="s">
         <v>221</v>
       </c>
@@ -11155,7 +11155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A116" s="7" t="s">
         <v>136</v>
       </c>
@@ -11163,7 +11163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A117" s="7" t="s">
         <v>254</v>
       </c>
@@ -11171,7 +11171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A118" s="7" t="s">
         <v>138</v>
       </c>
@@ -11179,7 +11179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A119" s="7" t="s">
         <v>267</v>
       </c>
@@ -11187,7 +11187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A120" s="7" t="s">
         <v>256</v>
       </c>
@@ -11195,7 +11195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A121" s="7" t="s">
         <v>192</v>
       </c>
@@ -11203,7 +11203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A122" s="7" t="s">
         <v>9</v>
       </c>
@@ -11211,7 +11211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A123" s="7" t="s">
         <v>303</v>
       </c>
@@ -11219,7 +11219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A124" s="7" t="s">
         <v>223</v>
       </c>
@@ -11227,7 +11227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A125" s="7" t="s">
         <v>83</v>
       </c>
@@ -11235,7 +11235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A126" s="7" t="s">
         <v>360</v>
       </c>
@@ -11243,7 +11243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A127" s="7" t="s">
         <v>85</v>
       </c>
@@ -11251,7 +11251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A128" s="7" t="s">
         <v>173</v>
       </c>
@@ -11259,7 +11259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A129" s="7" t="s">
         <v>11</v>
       </c>
@@ -11267,7 +11267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A130" s="7" t="s">
         <v>13</v>
       </c>
@@ -11275,7 +11275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A131" s="7" t="s">
         <v>175</v>
       </c>
@@ -11283,7 +11283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A132" s="7" t="s">
         <v>140</v>
       </c>
@@ -11291,7 +11291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A133" s="7" t="s">
         <v>386</v>
       </c>
@@ -11312,15 +11312,15 @@
       <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="21" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="1" max="1" width="38.83203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="38.796875" style="3" customWidth="1"/>
     <col min="2" max="2" width="38" style="3" customWidth="1"/>
     <col min="3" max="3" width="60.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="43.46484375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.75">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -11332,7 +11332,7 @@
       </c>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -11343,7 +11343,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -11354,7 +11354,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -11365,7 +11365,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -11376,7 +11376,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -11387,7 +11387,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -11398,7 +11398,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -11409,7 +11409,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
@@ -11420,7 +11420,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
@@ -11431,7 +11431,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A11" s="3" t="s">
         <v>33</v>
       </c>
@@ -11442,7 +11442,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A12" s="3" t="s">
         <v>33</v>
       </c>
@@ -11453,7 +11453,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
@@ -11464,7 +11464,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
@@ -11475,7 +11475,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A15" s="3" t="s">
         <v>33</v>
       </c>
@@ -11486,7 +11486,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
@@ -11497,7 +11497,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A17" s="3" t="s">
         <v>33</v>
       </c>
@@ -11508,7 +11508,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A18" s="3" t="s">
         <v>33</v>
       </c>
@@ -11519,7 +11519,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A19" s="3" t="s">
         <v>34</v>
       </c>
@@ -11530,7 +11530,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A20" s="3" t="s">
         <v>74</v>
       </c>
@@ -11541,7 +11541,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A21" s="3" t="s">
         <v>74</v>
       </c>
@@ -11552,7 +11552,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A22" s="3" t="s">
         <v>74</v>
       </c>
@@ -11563,7 +11563,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A23" s="3" t="s">
         <v>74</v>
       </c>
@@ -11574,7 +11574,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A24" s="3" t="s">
         <v>74</v>
       </c>
@@ -11585,7 +11585,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A25" s="3" t="s">
         <v>74</v>
       </c>
@@ -11596,7 +11596,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A26" s="3" t="s">
         <v>74</v>
       </c>
@@ -11607,7 +11607,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A27" s="3" t="s">
         <v>74</v>
       </c>
@@ -11618,7 +11618,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A28" s="3" t="s">
         <v>74</v>
       </c>
@@ -11629,7 +11629,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A29" s="3" t="s">
         <v>74</v>
       </c>
@@ -11640,7 +11640,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A30" s="3" t="s">
         <v>74</v>
       </c>
@@ -11651,7 +11651,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A31" s="3" t="s">
         <v>74</v>
       </c>
@@ -11662,7 +11662,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A32" s="3" t="s">
         <v>74</v>
       </c>
@@ -11673,7 +11673,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A33" s="3" t="s">
         <v>74</v>
       </c>
@@ -11684,7 +11684,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A34" s="3" t="s">
         <v>74</v>
       </c>
@@ -11695,7 +11695,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A35" s="3" t="s">
         <v>74</v>
       </c>
@@ -11706,7 +11706,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A36" s="3" t="s">
         <v>74</v>
       </c>
@@ -11717,7 +11717,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A37" s="3" t="s">
         <v>74</v>
       </c>
@@ -11728,7 +11728,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A38" s="3" t="s">
         <v>74</v>
       </c>
@@ -11739,7 +11739,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A39" s="3" t="s">
         <v>74</v>
       </c>
@@ -11750,7 +11750,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A40" s="3" t="s">
         <v>74</v>
       </c>
@@ -11761,7 +11761,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A41" s="3" t="s">
         <v>74</v>
       </c>
@@ -11772,7 +11772,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A42" s="3" t="s">
         <v>74</v>
       </c>
@@ -11783,7 +11783,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A43" s="3" t="s">
         <v>74</v>
       </c>
@@ -11794,7 +11794,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A44" s="3" t="s">
         <v>74</v>
       </c>
@@ -11805,7 +11805,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A45" s="3" t="s">
         <v>74</v>
       </c>
@@ -11816,7 +11816,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A46" s="3" t="s">
         <v>74</v>
       </c>
@@ -11827,7 +11827,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A47" s="3" t="s">
         <v>74</v>
       </c>
@@ -11838,7 +11838,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A48" s="3" t="s">
         <v>74</v>
       </c>
@@ -11849,7 +11849,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A49" s="3" t="s">
         <v>74</v>
       </c>
@@ -11860,7 +11860,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A50" s="3" t="s">
         <v>74</v>
       </c>
@@ -11871,7 +11871,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A51" s="3" t="s">
         <v>74</v>
       </c>
@@ -11882,7 +11882,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A52" s="3" t="s">
         <v>74</v>
       </c>
@@ -11893,7 +11893,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A53" s="3" t="s">
         <v>74</v>
       </c>
@@ -11904,7 +11904,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A54" s="3" t="s">
         <v>74</v>
       </c>
@@ -11915,7 +11915,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A55" s="3" t="s">
         <v>74</v>
       </c>
@@ -11926,7 +11926,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A56" s="3" t="s">
         <v>74</v>
       </c>
@@ -11937,7 +11937,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A57" s="3" t="s">
         <v>74</v>
       </c>
@@ -11948,7 +11948,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A58" s="3" t="s">
         <v>87</v>
       </c>
@@ -11959,7 +11959,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A59" s="3" t="s">
         <v>87</v>
       </c>
@@ -11970,7 +11970,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A60" s="3" t="s">
         <v>87</v>
       </c>
@@ -11981,7 +11981,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A61" s="3" t="s">
         <v>87</v>
       </c>
@@ -11992,7 +11992,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A62" s="3" t="s">
         <v>87</v>
       </c>
@@ -12003,7 +12003,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A63" s="3" t="s">
         <v>87</v>
       </c>
@@ -12014,7 +12014,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A64" s="3" t="s">
         <v>142</v>
       </c>
@@ -12025,7 +12025,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A65" s="3" t="s">
         <v>142</v>
       </c>
@@ -12036,7 +12036,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A66" s="3" t="s">
         <v>142</v>
       </c>
@@ -12047,7 +12047,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A67" s="3" t="s">
         <v>142</v>
       </c>
@@ -12058,7 +12058,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A68" s="3" t="s">
         <v>142</v>
       </c>
@@ -12069,7 +12069,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A69" s="3" t="s">
         <v>142</v>
       </c>
@@ -12080,7 +12080,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A70" s="3" t="s">
         <v>142</v>
       </c>
@@ -12091,7 +12091,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A71" s="3" t="s">
         <v>142</v>
       </c>
@@ -12102,7 +12102,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A72" s="3" t="s">
         <v>142</v>
       </c>
@@ -12113,7 +12113,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A73" s="3" t="s">
         <v>142</v>
       </c>
@@ -12124,7 +12124,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A74" s="3" t="s">
         <v>142</v>
       </c>
@@ -12135,7 +12135,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A75" s="3" t="s">
         <v>142</v>
       </c>
@@ -12146,7 +12146,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A76" s="3" t="s">
         <v>142</v>
       </c>
@@ -12157,7 +12157,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A77" s="3" t="s">
         <v>142</v>
       </c>
@@ -12168,7 +12168,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A78" s="3" t="s">
         <v>142</v>
       </c>
@@ -12179,7 +12179,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A79" s="3" t="s">
         <v>142</v>
       </c>
@@ -12190,7 +12190,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A80" s="3" t="s">
         <v>142</v>
       </c>
@@ -12201,7 +12201,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A81" s="3" t="s">
         <v>142</v>
       </c>
@@ -12212,7 +12212,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A82" s="3" t="s">
         <v>142</v>
       </c>
@@ -12223,7 +12223,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A83" s="3" t="s">
         <v>142</v>
       </c>
@@ -12234,7 +12234,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A84" s="3" t="s">
         <v>142</v>
       </c>
@@ -12245,7 +12245,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A85" s="3" t="s">
         <v>142</v>
       </c>
@@ -12256,7 +12256,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A86" s="3" t="s">
         <v>142</v>
       </c>
@@ -12267,7 +12267,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A87" s="3" t="s">
         <v>142</v>
       </c>
@@ -12278,7 +12278,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A88" s="3" t="s">
         <v>142</v>
       </c>
@@ -12289,7 +12289,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A89" s="3" t="s">
         <v>142</v>
       </c>
@@ -12300,7 +12300,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A90" s="3" t="s">
         <v>142</v>
       </c>
@@ -12311,7 +12311,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A91" s="3" t="s">
         <v>142</v>
       </c>
@@ -12322,7 +12322,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A92" s="3" t="s">
         <v>142</v>
       </c>
@@ -12333,7 +12333,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A93" s="3" t="s">
         <v>142</v>
       </c>
@@ -12344,7 +12344,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A94" s="3" t="s">
         <v>145</v>
       </c>
@@ -12355,7 +12355,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A95" s="3" t="s">
         <v>177</v>
       </c>
@@ -12366,7 +12366,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A96" s="3" t="s">
         <v>177</v>
       </c>
@@ -12377,7 +12377,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A97" s="3" t="s">
         <v>177</v>
       </c>
@@ -12388,7 +12388,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A98" s="3" t="s">
         <v>177</v>
       </c>
@@ -12399,7 +12399,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A99" s="3" t="s">
         <v>177</v>
       </c>
@@ -12410,7 +12410,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A100" s="3" t="s">
         <v>177</v>
       </c>
@@ -12421,7 +12421,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A101" s="3" t="s">
         <v>177</v>
       </c>
@@ -12432,7 +12432,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A102" s="3" t="s">
         <v>177</v>
       </c>
@@ -12443,7 +12443,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A103" s="3" t="s">
         <v>177</v>
       </c>
@@ -12454,7 +12454,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A104" s="3" t="s">
         <v>177</v>
       </c>
@@ -12465,7 +12465,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A105" s="3" t="s">
         <v>177</v>
       </c>
@@ -12476,7 +12476,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A106" s="3" t="s">
         <v>177</v>
       </c>
@@ -12487,7 +12487,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A107" s="3" t="s">
         <v>177</v>
       </c>
@@ -12498,7 +12498,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A108" s="3" t="s">
         <v>177</v>
       </c>
@@ -12509,7 +12509,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A109" s="3" t="s">
         <v>177</v>
       </c>
@@ -12520,7 +12520,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A110" s="3" t="s">
         <v>177</v>
       </c>
@@ -12531,7 +12531,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A111" s="3" t="s">
         <v>177</v>
       </c>
@@ -12542,7 +12542,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A112" s="3" t="s">
         <v>177</v>
       </c>
@@ -12553,7 +12553,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A113" s="3" t="s">
         <v>177</v>
       </c>
@@ -12564,7 +12564,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A114" s="3" t="s">
         <v>177</v>
       </c>
@@ -12575,7 +12575,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A115" s="3" t="s">
         <v>193</v>
       </c>
@@ -12586,7 +12586,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A116" s="3" t="s">
         <v>193</v>
       </c>
@@ -12597,7 +12597,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A117" s="3" t="s">
         <v>193</v>
       </c>
@@ -12608,7 +12608,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A118" s="3" t="s">
         <v>193</v>
       </c>
@@ -12619,7 +12619,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A119" s="3" t="s">
         <v>193</v>
       </c>
@@ -12630,7 +12630,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A120" s="3" t="s">
         <v>193</v>
       </c>
@@ -12641,7 +12641,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A121" s="3" t="s">
         <v>193</v>
       </c>
@@ -12652,7 +12652,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A122" s="3" t="s">
         <v>193</v>
       </c>
@@ -12663,7 +12663,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A123" s="3" t="s">
         <v>225</v>
       </c>
@@ -12674,7 +12674,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A124" s="3" t="s">
         <v>225</v>
       </c>
@@ -12685,7 +12685,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A125" s="3" t="s">
         <v>225</v>
       </c>
@@ -12696,7 +12696,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A126" s="3" t="s">
         <v>225</v>
       </c>
@@ -12707,7 +12707,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A127" s="3" t="s">
         <v>225</v>
       </c>
@@ -12718,7 +12718,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A128" s="3" t="s">
         <v>225</v>
       </c>
@@ -12729,7 +12729,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A129" s="3" t="s">
         <v>225</v>
       </c>
@@ -12740,7 +12740,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A130" s="3" t="s">
         <v>225</v>
       </c>
@@ -12751,7 +12751,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A131" s="3" t="s">
         <v>225</v>
       </c>
@@ -12762,7 +12762,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A132" s="3" t="s">
         <v>225</v>
       </c>
@@ -12773,7 +12773,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A133" s="3" t="s">
         <v>225</v>
       </c>
@@ -12784,7 +12784,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A134" s="3" t="s">
         <v>225</v>
       </c>
@@ -12795,7 +12795,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A135" s="3" t="s">
         <v>225</v>
       </c>
@@ -12806,7 +12806,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A136" s="3" t="s">
         <v>225</v>
       </c>
@@ -12817,7 +12817,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A137" s="3" t="s">
         <v>225</v>
       </c>
@@ -12828,7 +12828,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A138" s="3" t="s">
         <v>225</v>
       </c>
@@ -12839,7 +12839,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A139" s="3" t="s">
         <v>258</v>
       </c>
@@ -12850,7 +12850,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A140" s="3" t="s">
         <v>258</v>
       </c>
@@ -12861,7 +12861,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A141" s="3" t="s">
         <v>258</v>
       </c>
@@ -12872,7 +12872,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A142" s="3" t="s">
         <v>258</v>
       </c>
@@ -12883,7 +12883,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A143" s="3" t="s">
         <v>258</v>
       </c>
@@ -12894,7 +12894,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A144" s="3" t="s">
         <v>258</v>
       </c>
@@ -12905,7 +12905,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A145" s="3" t="s">
         <v>258</v>
       </c>
@@ -12916,7 +12916,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A146" s="3" t="s">
         <v>258</v>
       </c>
@@ -12927,7 +12927,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A147" s="3" t="s">
         <v>258</v>
       </c>
@@ -12938,7 +12938,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A148" s="3" t="s">
         <v>258</v>
       </c>
@@ -12949,7 +12949,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A149" s="3" t="s">
         <v>258</v>
       </c>
@@ -12960,7 +12960,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A150" s="3" t="s">
         <v>258</v>
       </c>
@@ -12971,7 +12971,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A151" s="3" t="s">
         <v>258</v>
       </c>
@@ -12982,7 +12982,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A152" s="3" t="s">
         <v>258</v>
       </c>
@@ -12993,7 +12993,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A153" s="3" t="s">
         <v>258</v>
       </c>
@@ -13004,7 +13004,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A154" s="3" t="s">
         <v>258</v>
       </c>
@@ -13015,7 +13015,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A155" s="3" t="s">
         <v>258</v>
       </c>
@@ -13026,7 +13026,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A156" s="3" t="s">
         <v>258</v>
       </c>
@@ -13037,7 +13037,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A157" s="3" t="s">
         <v>258</v>
       </c>
@@ -13048,7 +13048,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A158" s="3" t="s">
         <v>258</v>
       </c>
@@ -13059,7 +13059,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A159" s="3" t="s">
         <v>258</v>
       </c>
@@ -13070,7 +13070,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A160" s="3" t="s">
         <v>258</v>
       </c>
@@ -13081,7 +13081,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A161" s="3" t="s">
         <v>261</v>
       </c>
@@ -13092,7 +13092,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A162" s="3" t="s">
         <v>264</v>
       </c>
@@ -13103,7 +13103,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A163" s="3" t="s">
         <v>269</v>
       </c>
@@ -13114,7 +13114,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A164" s="3" t="s">
         <v>269</v>
       </c>
@@ -13125,7 +13125,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A165" s="3" t="s">
         <v>286</v>
       </c>
@@ -13136,7 +13136,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A166" s="3" t="s">
         <v>286</v>
       </c>
@@ -13147,7 +13147,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A167" s="3" t="s">
         <v>286</v>
       </c>
@@ -13158,7 +13158,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A168" s="3" t="s">
         <v>286</v>
       </c>
@@ -13169,7 +13169,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A169" s="3" t="s">
         <v>286</v>
       </c>
@@ -13180,7 +13180,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A170" s="3" t="s">
         <v>286</v>
       </c>
@@ -13191,7 +13191,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A171" s="3" t="s">
         <v>286</v>
       </c>
@@ -13202,7 +13202,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A172" s="3" t="s">
         <v>286</v>
       </c>
@@ -13213,7 +13213,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A173" s="3" t="s">
         <v>305</v>
       </c>
@@ -13224,7 +13224,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A174" s="3" t="s">
         <v>305</v>
       </c>
@@ -13235,7 +13235,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A175" s="3" t="s">
         <v>305</v>
       </c>
@@ -13246,7 +13246,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A176" s="3" t="s">
         <v>305</v>
       </c>
@@ -13257,7 +13257,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A177" s="3" t="s">
         <v>305</v>
       </c>
@@ -13268,7 +13268,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A178" s="3" t="s">
         <v>305</v>
       </c>
@@ -13279,7 +13279,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A179" s="3" t="s">
         <v>305</v>
       </c>
@@ -13290,7 +13290,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A180" s="3" t="s">
         <v>305</v>
       </c>
@@ -13301,7 +13301,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A181" s="3" t="s">
         <v>305</v>
       </c>
@@ -13312,7 +13312,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A182" s="3" t="s">
         <v>305</v>
       </c>
@@ -13323,7 +13323,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A183" s="3" t="s">
         <v>313</v>
       </c>
@@ -13334,7 +13334,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A184" s="3" t="s">
         <v>313</v>
       </c>
@@ -13345,7 +13345,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A185" s="3" t="s">
         <v>313</v>
       </c>
@@ -13356,7 +13356,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A186" s="3" t="s">
         <v>313</v>
       </c>
@@ -13367,7 +13367,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A187" s="3" t="s">
         <v>313</v>
       </c>
@@ -13378,7 +13378,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A188" s="3" t="s">
         <v>321</v>
       </c>
@@ -13389,7 +13389,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A189" s="3" t="s">
         <v>321</v>
       </c>
@@ -13400,7 +13400,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A190" s="3" t="s">
         <v>321</v>
       </c>
@@ -13411,7 +13411,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A191" s="3" t="s">
         <v>321</v>
       </c>
@@ -13422,7 +13422,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A192" s="3" t="s">
         <v>321</v>
       </c>
@@ -13433,7 +13433,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A193" s="3" t="s">
         <v>321</v>
       </c>
@@ -13444,7 +13444,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A194" s="3" t="s">
         <v>362</v>
       </c>
@@ -13455,7 +13455,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A195" s="3" t="s">
         <v>362</v>
       </c>
@@ -13466,7 +13466,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A196" s="3" t="s">
         <v>362</v>
       </c>
@@ -13477,7 +13477,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A197" s="3" t="s">
         <v>362</v>
       </c>
@@ -13488,7 +13488,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A198" s="3" t="s">
         <v>362</v>
       </c>
@@ -13499,7 +13499,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A199" s="3" t="s">
         <v>362</v>
       </c>
@@ -13510,7 +13510,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A200" s="3" t="s">
         <v>362</v>
       </c>
@@ -13521,7 +13521,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A201" s="3" t="s">
         <v>362</v>
       </c>
@@ -13532,7 +13532,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A202" s="3" t="s">
         <v>362</v>
       </c>
@@ -13543,7 +13543,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A203" s="3" t="s">
         <v>362</v>
       </c>
@@ -13554,7 +13554,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A204" s="3" t="s">
         <v>362</v>
       </c>
@@ -13565,7 +13565,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A205" s="3" t="s">
         <v>362</v>
       </c>
@@ -13576,7 +13576,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A206" s="3" t="s">
         <v>362</v>
       </c>
@@ -13587,7 +13587,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A207" s="3" t="s">
         <v>362</v>
       </c>
@@ -13598,7 +13598,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A208" s="3" t="s">
         <v>362</v>
       </c>
@@ -13609,7 +13609,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A209" s="3" t="s">
         <v>362</v>
       </c>
@@ -13620,7 +13620,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A210" s="3" t="s">
         <v>362</v>
       </c>
@@ -13631,7 +13631,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A211" s="3" t="s">
         <v>362</v>
       </c>
@@ -13642,7 +13642,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A212" s="3" t="s">
         <v>362</v>
       </c>
@@ -13653,7 +13653,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A213" s="3" t="s">
         <v>362</v>
       </c>
@@ -13664,7 +13664,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A214" s="3" t="s">
         <v>362</v>
       </c>
@@ -13675,7 +13675,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A215" s="3" t="s">
         <v>362</v>
       </c>
@@ -13686,7 +13686,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A216" s="3" t="s">
         <v>362</v>
       </c>
@@ -13697,7 +13697,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A217" s="3" t="s">
         <v>362</v>
       </c>
@@ -13708,7 +13708,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A218" s="3" t="s">
         <v>362</v>
       </c>
@@ -13719,7 +13719,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A219" s="3" t="s">
         <v>362</v>
       </c>
@@ -13730,7 +13730,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A220" s="3" t="s">
         <v>383</v>
       </c>
@@ -13741,7 +13741,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A221" s="3" t="s">
         <v>383</v>
       </c>
@@ -13752,7 +13752,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A222" s="3" t="s">
         <v>383</v>
       </c>
@@ -13763,7 +13763,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A223" s="3" t="s">
         <v>383</v>
       </c>
@@ -13774,7 +13774,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A224" s="3" t="s">
         <v>383</v>
       </c>
@@ -13785,7 +13785,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A225" s="3" t="s">
         <v>383</v>
       </c>
@@ -13796,7 +13796,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A226" s="3" t="s">
         <v>383</v>
       </c>
@@ -13807,7 +13807,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A227" s="3" t="s">
         <v>383</v>
       </c>
@@ -13818,7 +13818,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A228" s="3" t="s">
         <v>383</v>
       </c>
@@ -13829,7 +13829,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A229" s="3" t="s">
         <v>383</v>
       </c>
@@ -13840,7 +13840,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A230" s="3" t="s">
         <v>383</v>
       </c>
@@ -13851,7 +13851,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A231" s="3" t="s">
         <v>383</v>
       </c>
@@ -13862,7 +13862,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A232" s="3" t="s">
         <v>383</v>
       </c>
@@ -13873,7 +13873,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A233" s="3" t="s">
         <v>383</v>
       </c>
@@ -13893,17 +13893,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41AC110-EC4F-6542-9B12-D9D9BA9856BD}">
   <dimension ref="A1:B130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="25.5" x14ac:dyDescent="0.75">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -13911,7 +13911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A2" s="3" t="s">
         <v>387</v>
       </c>
@@ -13919,7 +13919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A3" s="3" t="s">
         <v>387</v>
       </c>
@@ -13927,7 +13927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A4" s="3" t="s">
         <v>387</v>
       </c>
@@ -13935,7 +13935,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A5" s="3" t="s">
         <v>387</v>
       </c>
@@ -13943,7 +13943,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A6" s="3" t="s">
         <v>387</v>
       </c>
@@ -13951,7 +13951,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -13959,7 +13959,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -13967,7 +13967,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
@@ -13975,7 +13975,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
@@ -13983,7 +13983,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A11" s="3" t="s">
         <v>33</v>
       </c>
@@ -13991,7 +13991,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A12" s="3" t="s">
         <v>34</v>
       </c>
@@ -13999,7 +13999,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A13" s="3" t="s">
         <v>74</v>
       </c>
@@ -14007,7 +14007,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A14" s="3" t="s">
         <v>87</v>
       </c>
@@ -14015,7 +14015,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A15" s="3" t="s">
         <v>87</v>
       </c>
@@ -14023,7 +14023,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A16" s="3" t="s">
         <v>87</v>
       </c>
@@ -14031,7 +14031,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A17" s="3" t="s">
         <v>87</v>
       </c>
@@ -14039,7 +14039,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A18" s="3" t="s">
         <v>87</v>
       </c>
@@ -14047,7 +14047,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A19" s="3" t="s">
         <v>87</v>
       </c>
@@ -14055,7 +14055,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A20" s="3" t="s">
         <v>142</v>
       </c>
@@ -14063,7 +14063,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A21" s="3" t="s">
         <v>142</v>
       </c>
@@ -14071,7 +14071,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A22" s="3" t="s">
         <v>142</v>
       </c>
@@ -14079,7 +14079,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A23" s="3" t="s">
         <v>142</v>
       </c>
@@ -14087,7 +14087,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A24" s="3" t="s">
         <v>142</v>
       </c>
@@ -14095,7 +14095,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A25" s="3" t="s">
         <v>142</v>
       </c>
@@ -14103,7 +14103,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A26" s="3" t="s">
         <v>142</v>
       </c>
@@ -14111,7 +14111,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A27" s="3" t="s">
         <v>142</v>
       </c>
@@ -14119,7 +14119,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A28" s="3" t="s">
         <v>142</v>
       </c>
@@ -14127,7 +14127,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A29" s="3" t="s">
         <v>142</v>
       </c>
@@ -14135,7 +14135,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A30" s="3" t="s">
         <v>142</v>
       </c>
@@ -14143,7 +14143,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A31" s="3" t="s">
         <v>142</v>
       </c>
@@ -14151,7 +14151,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A32" s="3" t="s">
         <v>142</v>
       </c>
@@ -14159,7 +14159,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A33" s="3" t="s">
         <v>142</v>
       </c>
@@ -14167,7 +14167,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A34" s="3" t="s">
         <v>142</v>
       </c>
@@ -14175,7 +14175,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A35" s="3" t="s">
         <v>142</v>
       </c>
@@ -14183,7 +14183,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A36" s="3" t="s">
         <v>142</v>
       </c>
@@ -14191,7 +14191,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A37" s="3" t="s">
         <v>142</v>
       </c>
@@ -14199,7 +14199,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A38" s="3" t="s">
         <v>142</v>
       </c>
@@ -14207,7 +14207,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A39" s="3" t="s">
         <v>142</v>
       </c>
@@ -14215,7 +14215,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A40" s="3" t="s">
         <v>142</v>
       </c>
@@ -14223,7 +14223,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A41" s="3" t="s">
         <v>142</v>
       </c>
@@ -14231,7 +14231,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A42" s="3" t="s">
         <v>142</v>
       </c>
@@ -14239,7 +14239,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A43" s="3" t="s">
         <v>142</v>
       </c>
@@ -14247,7 +14247,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A44" s="3" t="s">
         <v>145</v>
       </c>
@@ -14255,7 +14255,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A45" s="3" t="s">
         <v>177</v>
       </c>
@@ -14263,7 +14263,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A46" s="3" t="s">
         <v>177</v>
       </c>
@@ -14271,7 +14271,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A47" s="3" t="s">
         <v>177</v>
       </c>
@@ -14279,7 +14279,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A48" s="3" t="s">
         <v>177</v>
       </c>
@@ -14287,7 +14287,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A49" s="3" t="s">
         <v>177</v>
       </c>
@@ -14295,7 +14295,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A50" s="3" t="s">
         <v>177</v>
       </c>
@@ -14303,7 +14303,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A51" s="3" t="s">
         <v>177</v>
       </c>
@@ -14311,7 +14311,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A52" s="3" t="s">
         <v>177</v>
       </c>
@@ -14319,7 +14319,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A53" s="3" t="s">
         <v>177</v>
       </c>
@@ -14327,7 +14327,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A54" s="3" t="s">
         <v>177</v>
       </c>
@@ -14335,7 +14335,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A55" s="3" t="s">
         <v>177</v>
       </c>
@@ -14343,7 +14343,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A56" s="3" t="s">
         <v>193</v>
       </c>
@@ -14351,7 +14351,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A57" s="3" t="s">
         <v>193</v>
       </c>
@@ -14359,7 +14359,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A58" s="3" t="s">
         <v>193</v>
       </c>
@@ -14367,7 +14367,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A59" s="3" t="s">
         <v>193</v>
       </c>
@@ -14375,7 +14375,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A60" s="3" t="s">
         <v>193</v>
       </c>
@@ -14383,7 +14383,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A61" s="3" t="s">
         <v>193</v>
       </c>
@@ -14391,7 +14391,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A62" s="3" t="s">
         <v>193</v>
       </c>
@@ -14399,7 +14399,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A63" s="3" t="s">
         <v>388</v>
       </c>
@@ -14407,7 +14407,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A64" s="3" t="s">
         <v>388</v>
       </c>
@@ -14415,7 +14415,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A65" s="3" t="s">
         <v>388</v>
       </c>
@@ -14423,7 +14423,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A66" s="3" t="s">
         <v>388</v>
       </c>
@@ -14431,7 +14431,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A67" s="3" t="s">
         <v>388</v>
       </c>
@@ -14439,7 +14439,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A68" s="3" t="s">
         <v>388</v>
       </c>
@@ -14447,7 +14447,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A69" s="3" t="s">
         <v>388</v>
       </c>
@@ -14455,7 +14455,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A70" s="3" t="s">
         <v>388</v>
       </c>
@@ -14463,7 +14463,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A71" s="3" t="s">
         <v>388</v>
       </c>
@@ -14471,7 +14471,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A72" s="3" t="s">
         <v>388</v>
       </c>
@@ -14479,7 +14479,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A73" s="3" t="s">
         <v>388</v>
       </c>
@@ -14487,7 +14487,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A74" s="3" t="s">
         <v>388</v>
       </c>
@@ -14495,7 +14495,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A75" s="3" t="s">
         <v>388</v>
       </c>
@@ -14503,7 +14503,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A76" s="3" t="s">
         <v>388</v>
       </c>
@@ -14511,7 +14511,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A77" s="3" t="s">
         <v>388</v>
       </c>
@@ -14519,7 +14519,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A78" s="3" t="s">
         <v>258</v>
       </c>
@@ -14527,7 +14527,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A79" s="3" t="s">
         <v>258</v>
       </c>
@@ -14535,7 +14535,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A80" s="3" t="s">
         <v>258</v>
       </c>
@@ -14543,7 +14543,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A81" s="3" t="s">
         <v>258</v>
       </c>
@@ -14551,7 +14551,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A82" s="3" t="s">
         <v>258</v>
       </c>
@@ -14559,7 +14559,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A83" s="3" t="s">
         <v>258</v>
       </c>
@@ -14567,7 +14567,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A84" s="3" t="s">
         <v>258</v>
       </c>
@@ -14575,7 +14575,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A85" s="3" t="s">
         <v>258</v>
       </c>
@@ -14583,7 +14583,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A86" s="3" t="s">
         <v>258</v>
       </c>
@@ -14591,7 +14591,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A87" s="3" t="s">
         <v>258</v>
       </c>
@@ -14599,7 +14599,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A88" s="3" t="s">
         <v>261</v>
       </c>
@@ -14607,7 +14607,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A89" s="3" t="s">
         <v>264</v>
       </c>
@@ -14615,7 +14615,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A90" s="3" t="s">
         <v>269</v>
       </c>
@@ -14623,7 +14623,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A91" s="3" t="s">
         <v>269</v>
       </c>
@@ -14631,7 +14631,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A92" s="3" t="s">
         <v>286</v>
       </c>
@@ -14639,7 +14639,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A93" s="3" t="s">
         <v>286</v>
       </c>
@@ -14647,7 +14647,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A94" s="3" t="s">
         <v>286</v>
       </c>
@@ -14655,7 +14655,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A95" s="3" t="s">
         <v>286</v>
       </c>
@@ -14663,7 +14663,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A96" s="3" t="s">
         <v>286</v>
       </c>
@@ -14671,7 +14671,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A97" s="3" t="s">
         <v>286</v>
       </c>
@@ -14679,7 +14679,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A98" s="3" t="s">
         <v>286</v>
       </c>
@@ -14687,7 +14687,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A99" s="3" t="s">
         <v>286</v>
       </c>
@@ -14695,7 +14695,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A100" s="3" t="s">
         <v>305</v>
       </c>
@@ -14703,7 +14703,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A101" s="3" t="s">
         <v>305</v>
       </c>
@@ -14711,7 +14711,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A102" s="3" t="s">
         <v>305</v>
       </c>
@@ -14719,7 +14719,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A103" s="3" t="s">
         <v>305</v>
       </c>
@@ -14727,7 +14727,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A104" s="3" t="s">
         <v>305</v>
       </c>
@@ -14735,7 +14735,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A105" s="3" t="s">
         <v>305</v>
       </c>
@@ -14743,7 +14743,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A106" s="3" t="s">
         <v>305</v>
       </c>
@@ -14751,7 +14751,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A107" s="3" t="s">
         <v>305</v>
       </c>
@@ -14759,7 +14759,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A108" s="3" t="s">
         <v>389</v>
       </c>
@@ -14767,7 +14767,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A109" s="3" t="s">
         <v>389</v>
       </c>
@@ -14775,7 +14775,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A110" s="3" t="s">
         <v>321</v>
       </c>
@@ -14783,7 +14783,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A111" s="3" t="s">
         <v>390</v>
       </c>
@@ -14791,7 +14791,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A112" s="3" t="s">
         <v>390</v>
       </c>
@@ -14799,7 +14799,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A113" s="3" t="s">
         <v>390</v>
       </c>
@@ -14807,7 +14807,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A114" s="3" t="s">
         <v>390</v>
       </c>
@@ -14815,7 +14815,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A115" s="3" t="s">
         <v>390</v>
       </c>
@@ -14823,7 +14823,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A116" s="3" t="s">
         <v>390</v>
       </c>
@@ -14831,7 +14831,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A117" s="3" t="s">
         <v>390</v>
       </c>
@@ -14839,7 +14839,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A118" s="3" t="s">
         <v>390</v>
       </c>
@@ -14847,7 +14847,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A119" s="3" t="s">
         <v>390</v>
       </c>
@@ -14855,7 +14855,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A120" s="3" t="s">
         <v>390</v>
       </c>
@@ -14863,7 +14863,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A121" s="3" t="s">
         <v>390</v>
       </c>
@@ -14871,7 +14871,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A122" s="3" t="s">
         <v>390</v>
       </c>
@@ -14879,7 +14879,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A123" s="3" t="s">
         <v>390</v>
       </c>
@@ -14887,7 +14887,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A124" s="3" t="s">
         <v>390</v>
       </c>
@@ -14895,7 +14895,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A125" s="3" t="s">
         <v>393</v>
       </c>
@@ -14903,7 +14903,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A126" s="3" t="s">
         <v>393</v>
       </c>
@@ -14911,7 +14911,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A127" s="3" t="s">
         <v>393</v>
       </c>
@@ -14919,7 +14919,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A128" s="3" t="s">
         <v>393</v>
       </c>
@@ -14927,7 +14927,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A129" s="3" t="s">
         <v>393</v>
       </c>
@@ -14935,7 +14935,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" ht="21" x14ac:dyDescent="0.65">
       <c r="A130" s="3" t="s">
         <v>393</v>
       </c>
